--- a/estimation_result_HzFilter.xlsx
+++ b/estimation_result_HzFilter.xlsx
@@ -8,25 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itou\Documents\M1_TA\通信2\AICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EE0203-350E-4E89-9ED2-0B90EC9B169D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E56EF6-6071-4386-B92D-CA6F74A7F1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10425" windowHeight="13043" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C3F" sheetId="1" r:id="rId1"/>
     <sheet name="C4F" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="34">
   <si>
     <t>x</t>
   </si>
@@ -38,79 +33,118 @@
   </si>
   <si>
     <t>WCL</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CLA</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>PBL</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Ave</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Max</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Var</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Std</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>estimated</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t xml:space="preserve">correct </t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>correct</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Location</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Min</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>index P</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Index P</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CNT</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5GHz</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2.4GHz</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>estimated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correct </t>
+  </si>
+  <si>
+    <t>Index P</t>
+  </si>
+  <si>
+    <t>Ave</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
+  <si>
+    <t>Var</t>
+  </si>
+  <si>
+    <t>CNT+OL+F(2.4)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CNT+F(2.4)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OL+F(5)</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -125,9 +159,17 @@
     <numFmt numFmtId="180" formatCode="0.0"/>
     <numFmt numFmtId="181" formatCode="0.00000000000000_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -173,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +249,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -339,35 +393,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -389,7 +446,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -399,7 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -440,17 +497,17 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -468,10 +525,58 @@
     <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -492,6 +597,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,28 +621,9 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="20% - アクセント 1" xfId="2" builtinId="30"/>
     <cellStyle name="アクセント 5" xfId="1" builtinId="45"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1635,10 +1733,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'C3F'!$AJ$4:$AJ$62</c:f>
+              <c:f>'C3F'!$AJ$4:$AJ$60</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>2.9928684760853477</c:v>
                 </c:pt>
@@ -1809,12 +1907,6 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0.83069306556750178</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.0624493592633359</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>6.9963625999978145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5572,10 +5664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ68"/>
+  <dimension ref="A1:BL68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="AP71" sqref="AP71"/>
+    <sheetView tabSelected="1" topLeftCell="BF50" zoomScale="70" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="BN46" sqref="BN46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -5586,7 +5678,7 @@
     <col min="30" max="30" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:64" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="33" t="s">
         <v>5</v>
       </c>
@@ -5605,82 +5697,127 @@
       <c r="AL1" s="33" t="s">
         <v>21</v>
       </c>
+      <c r="AS1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ1" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="BG1" s="33" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="91"/>
+      <c r="D2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="71"/>
+      <c r="E2" s="91"/>
       <c r="F2" s="23"/>
       <c r="I2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="72" t="s">
+      <c r="K2" s="93"/>
+      <c r="L2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="73"/>
+      <c r="M2" s="93"/>
       <c r="N2" s="18"/>
       <c r="Q2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="68" t="s">
+      <c r="R2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="69"/>
-      <c r="T2" s="68" t="s">
+      <c r="S2" s="89"/>
+      <c r="T2" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="69"/>
+      <c r="U2" s="89"/>
       <c r="V2" s="28"/>
       <c r="X2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="66" t="s">
+      <c r="Y2" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="66" t="s">
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="67"/>
+      <c r="AB2" s="97"/>
       <c r="AC2" s="61"/>
-      <c r="AE2" s="78" t="s">
+      <c r="AE2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="AF2" s="79" t="s">
+      <c r="AF2" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="79" t="s">
+      <c r="AG2" s="95"/>
+      <c r="AH2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="81"/>
-      <c r="AL2" s="78" t="s">
+      <c r="AI2" s="95"/>
+      <c r="AJ2" s="67"/>
+      <c r="AL2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="AM2" s="79" t="s">
+      <c r="AM2" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="79" t="s">
+      <c r="AN2" s="95"/>
+      <c r="AO2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="81"/>
+      <c r="AP2" s="95"/>
+      <c r="AQ2" s="67"/>
+      <c r="AS2" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT2" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU2" s="87"/>
+      <c r="AV2" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW2" s="87"/>
+      <c r="AX2" s="73"/>
+      <c r="AZ2" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA2" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB2" s="85"/>
+      <c r="BC2" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD2" s="85"/>
+      <c r="BE2" s="79"/>
+      <c r="BG2" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH2" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI2" s="85"/>
+      <c r="BJ2" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK2" s="85"/>
+      <c r="BL2" s="79"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>17</v>
       </c>
@@ -5753,44 +5890,98 @@
       <c r="AC3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="AE3" s="82" t="s">
+      <c r="AE3" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="84" t="s">
+      <c r="AF3" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="AH3" s="83" t="s">
+      <c r="AH3" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="AI3" s="84" t="s">
+      <c r="AI3" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AJ3" s="85" t="s">
+      <c r="AJ3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="AL3" s="82" t="s">
+      <c r="AL3" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="AM3" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="84" t="s">
+      <c r="AM3" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="AO3" s="83" t="s">
+      <c r="AO3" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="AP3" s="84" t="s">
+      <c r="AP3" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AQ3" s="85" t="s">
+      <c r="AQ3" s="71" t="s">
         <v>2</v>
       </c>
+      <c r="AS3" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT3" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ3" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA3" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG3" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH3" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="83" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -5905,8 +6096,65 @@
         <f>SQRT((AM4-AO4)^2+(AN4-AP4)^2)</f>
         <v>1.9478745763048642</v>
       </c>
+      <c r="AS4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="57">
+        <v>30.087094687317698</v>
+      </c>
+      <c r="AU4" s="57">
+        <v>6.2527249220726194E-2</v>
+      </c>
+      <c r="AV4" s="38">
+        <v>32</v>
+      </c>
+      <c r="AW4" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="7">
+        <f>SQRT((AT4-AV4)^2+(AU4-AW4)^2)</f>
+        <v>1.9139269558118683</v>
+      </c>
+      <c r="AZ4" s="5">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="57">
+        <v>30.087094687317698</v>
+      </c>
+      <c r="BB4" s="57">
+        <v>6.2527249220726194E-2</v>
+      </c>
+      <c r="BC4" s="38">
+        <v>32</v>
+      </c>
+      <c r="BD4" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="7">
+        <f>SQRT((BA4-BC4)^2+(BB4-BD4)^2)</f>
+        <v>1.9139269558118683</v>
+      </c>
+      <c r="BG4" s="5">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="57">
+        <v>29.485141505450599</v>
+      </c>
+      <c r="BI4" s="57">
+        <v>1.62257464159223</v>
+      </c>
+      <c r="BJ4" s="38">
+        <v>32</v>
+      </c>
+      <c r="BK4" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="7">
+        <f>SQRT((BH4-BJ4)^2+(BI4-BK4)^2)</f>
+        <v>2.9928684760853477</v>
+      </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -5998,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="7">
-        <f t="shared" ref="AJ5:AJ62" si="1">SQRT((AF5-AH5)^2+(AG5-AI5)^2)</f>
+        <f t="shared" ref="AJ5:AJ60" si="1">SQRT((AF5-AH5)^2+(AG5-AI5)^2)</f>
         <v>0.12188223768919926</v>
       </c>
       <c r="AL5" s="5">
@@ -6020,8 +6268,65 @@
         <f t="shared" ref="AQ5:AQ62" si="2">SQRT((AM5-AO5)^2+(AN5-AP5)^2)</f>
         <v>1.1606042322096002</v>
       </c>
+      <c r="AS5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="57">
+        <v>28.8393957677904</v>
+      </c>
+      <c r="AU5" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="38">
+        <v>30</v>
+      </c>
+      <c r="AW5" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="7">
+        <f t="shared" ref="AX5:AX62" si="3">SQRT((AT5-AV5)^2+(AU5-AW5)^2)</f>
+        <v>1.1606042322096002</v>
+      </c>
+      <c r="AZ5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BA5" s="57">
+        <v>28.8393957677904</v>
+      </c>
+      <c r="BB5" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="38">
+        <v>30</v>
+      </c>
+      <c r="BD5" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="7">
+        <f t="shared" ref="BE5:BE62" si="4">SQRT((BA5-BC5)^2+(BB5-BD5)^2)</f>
+        <v>1.1606042322096002</v>
+      </c>
+      <c r="BG5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BH5" s="57">
+        <v>29.878117762310801</v>
+      </c>
+      <c r="BI5" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="38">
+        <v>30</v>
+      </c>
+      <c r="BK5" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="7">
+        <f t="shared" ref="BL5:BL62" si="5">SQRT((BH5-BJ5)^2+(BI5-BK5)^2)</f>
+        <v>0.12188223768919926</v>
+      </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -6135,8 +6440,65 @@
         <f t="shared" si="2"/>
         <v>3.2569462765167003</v>
       </c>
+      <c r="AS6" s="5">
+        <v>3</v>
+      </c>
+      <c r="AT6" s="57">
+        <v>24.7430537234833</v>
+      </c>
+      <c r="AU6" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="38">
+        <v>28</v>
+      </c>
+      <c r="AW6" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="7">
+        <f t="shared" si="3"/>
+        <v>3.2569462765167003</v>
+      </c>
+      <c r="AZ6" s="5">
+        <v>3</v>
+      </c>
+      <c r="BA6" s="57">
+        <v>24.7430537234833</v>
+      </c>
+      <c r="BB6" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="38">
+        <v>28</v>
+      </c>
+      <c r="BD6" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="7">
+        <f t="shared" si="4"/>
+        <v>3.2569462765167003</v>
+      </c>
+      <c r="BG6" s="5">
+        <v>3</v>
+      </c>
+      <c r="BH6" s="57">
+        <v>27.6423743997379</v>
+      </c>
+      <c r="BI6" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="38">
+        <v>28</v>
+      </c>
+      <c r="BK6" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.35762560026210011</v>
+      </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -6250,8 +6612,65 @@
         <f t="shared" si="2"/>
         <v>2.0423372386869012</v>
       </c>
+      <c r="AS7" s="5">
+        <v>4</v>
+      </c>
+      <c r="AT7" s="57">
+        <v>28.042337238686901</v>
+      </c>
+      <c r="AU7" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="38">
+        <v>26</v>
+      </c>
+      <c r="AW7" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="7">
+        <f t="shared" si="3"/>
+        <v>2.0423372386869012</v>
+      </c>
+      <c r="AZ7" s="5">
+        <v>4</v>
+      </c>
+      <c r="BA7" s="57">
+        <v>28.042337238686901</v>
+      </c>
+      <c r="BB7" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="38">
+        <v>26</v>
+      </c>
+      <c r="BD7" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="7">
+        <f t="shared" si="4"/>
+        <v>2.0423372386869012</v>
+      </c>
+      <c r="BG7" s="5">
+        <v>4</v>
+      </c>
+      <c r="BH7" s="57">
+        <v>21.9328500290103</v>
+      </c>
+      <c r="BI7" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="38">
+        <v>26</v>
+      </c>
+      <c r="BK7" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="7">
+        <f t="shared" si="5"/>
+        <v>4.0671499709896999</v>
+      </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -6365,8 +6784,65 @@
         <f t="shared" si="2"/>
         <v>0.80508458238290004</v>
       </c>
+      <c r="AS8" s="5">
+        <v>5</v>
+      </c>
+      <c r="AT8" s="57">
+        <v>23.1949154176171</v>
+      </c>
+      <c r="AU8" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="38">
+        <v>24</v>
+      </c>
+      <c r="AW8" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="7">
+        <f t="shared" si="3"/>
+        <v>0.80508458238290004</v>
+      </c>
+      <c r="AZ8" s="5">
+        <v>5</v>
+      </c>
+      <c r="BA8" s="57">
+        <v>23.1949154176171</v>
+      </c>
+      <c r="BB8" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="38">
+        <v>24</v>
+      </c>
+      <c r="BD8" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="7">
+        <f t="shared" si="4"/>
+        <v>0.80508458238290004</v>
+      </c>
+      <c r="BG8" s="5">
+        <v>5</v>
+      </c>
+      <c r="BH8" s="57">
+        <v>21.365370742317602</v>
+      </c>
+      <c r="BI8" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="38">
+        <v>24</v>
+      </c>
+      <c r="BK8" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="7">
+        <f t="shared" si="5"/>
+        <v>2.6346292576823984</v>
+      </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -6480,8 +6956,65 @@
         <f t="shared" si="2"/>
         <v>1.3290580808295012</v>
       </c>
+      <c r="AS9" s="5">
+        <v>6</v>
+      </c>
+      <c r="AT9" s="57">
+        <v>20.670941919170499</v>
+      </c>
+      <c r="AU9" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="38">
+        <v>22</v>
+      </c>
+      <c r="AW9" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="7">
+        <f t="shared" si="3"/>
+        <v>1.3290580808295012</v>
+      </c>
+      <c r="AZ9" s="5">
+        <v>6</v>
+      </c>
+      <c r="BA9" s="57">
+        <v>20.670941919170499</v>
+      </c>
+      <c r="BB9" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="38">
+        <v>22</v>
+      </c>
+      <c r="BD9" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="7">
+        <f t="shared" si="4"/>
+        <v>1.3290580808295012</v>
+      </c>
+      <c r="BG9" s="5">
+        <v>6</v>
+      </c>
+      <c r="BH9" s="57">
+        <v>20.886386458004299</v>
+      </c>
+      <c r="BI9" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="38">
+        <v>22</v>
+      </c>
+      <c r="BK9" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="7">
+        <f t="shared" si="5"/>
+        <v>1.1136135419957007</v>
+      </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -6595,8 +7128,65 @@
         <f t="shared" si="2"/>
         <v>0.67311226263990065</v>
       </c>
+      <c r="AS10" s="5">
+        <v>7</v>
+      </c>
+      <c r="AT10" s="57">
+        <v>20.673112262639901</v>
+      </c>
+      <c r="AU10" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="38">
+        <v>20</v>
+      </c>
+      <c r="AW10" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="7">
+        <f t="shared" si="3"/>
+        <v>0.67311226263990065</v>
+      </c>
+      <c r="AZ10" s="5">
+        <v>7</v>
+      </c>
+      <c r="BA10" s="57">
+        <v>20.673112262639901</v>
+      </c>
+      <c r="BB10" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="38">
+        <v>20</v>
+      </c>
+      <c r="BD10" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="7">
+        <f t="shared" si="4"/>
+        <v>0.67311226263990065</v>
+      </c>
+      <c r="BG10" s="5">
+        <v>7</v>
+      </c>
+      <c r="BH10" s="57">
+        <v>20.733537629048801</v>
+      </c>
+      <c r="BI10" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="38">
+        <v>20</v>
+      </c>
+      <c r="BK10" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="7">
+        <f t="shared" si="5"/>
+        <v>0.73353762904880071</v>
+      </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -6710,8 +7300,65 @@
         <f t="shared" si="2"/>
         <v>0.88883096444349974</v>
       </c>
+      <c r="AS11" s="5">
+        <v>8</v>
+      </c>
+      <c r="AT11" s="57">
+        <v>17.1111690355565</v>
+      </c>
+      <c r="AU11" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="38">
+        <v>18</v>
+      </c>
+      <c r="AW11" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="7">
+        <f t="shared" si="3"/>
+        <v>0.88883096444349974</v>
+      </c>
+      <c r="AZ11" s="5">
+        <v>8</v>
+      </c>
+      <c r="BA11" s="57">
+        <v>17.1111690355565</v>
+      </c>
+      <c r="BB11" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="38">
+        <v>18</v>
+      </c>
+      <c r="BD11" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="7">
+        <f t="shared" si="4"/>
+        <v>0.88883096444349974</v>
+      </c>
+      <c r="BG11" s="5">
+        <v>8</v>
+      </c>
+      <c r="BH11" s="57">
+        <v>20.670941919170499</v>
+      </c>
+      <c r="BI11" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="38">
+        <v>18</v>
+      </c>
+      <c r="BK11" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="7">
+        <f t="shared" si="5"/>
+        <v>2.6709419191704988</v>
+      </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -6825,8 +7472,65 @@
         <f t="shared" si="2"/>
         <v>5.6567567567567991</v>
       </c>
+      <c r="AS12" s="5">
+        <v>9</v>
+      </c>
+      <c r="AT12" s="57">
+        <v>10.343243243243201</v>
+      </c>
+      <c r="AU12" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="38">
+        <v>16</v>
+      </c>
+      <c r="AW12" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="7">
+        <f t="shared" si="3"/>
+        <v>5.6567567567567991</v>
+      </c>
+      <c r="AZ12" s="5">
+        <v>9</v>
+      </c>
+      <c r="BA12" s="57">
+        <v>10.343243243243201</v>
+      </c>
+      <c r="BB12" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="38">
+        <v>16</v>
+      </c>
+      <c r="BD12" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="7">
+        <f t="shared" si="4"/>
+        <v>5.6567567567567991</v>
+      </c>
+      <c r="BG12" s="5">
+        <v>9</v>
+      </c>
+      <c r="BH12" s="57">
+        <v>17.264467255768</v>
+      </c>
+      <c r="BI12" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="38">
+        <v>16</v>
+      </c>
+      <c r="BK12" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="7">
+        <f t="shared" si="5"/>
+        <v>1.2644672557680003</v>
+      </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -6940,8 +7644,65 @@
         <f t="shared" si="2"/>
         <v>4.76742915202761</v>
       </c>
+      <c r="AS13" s="5">
+        <v>10</v>
+      </c>
+      <c r="AT13" s="57">
+        <v>9.23257084797239</v>
+      </c>
+      <c r="AU13" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="38">
+        <v>14</v>
+      </c>
+      <c r="AW13" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="7">
+        <f t="shared" si="3"/>
+        <v>4.76742915202761</v>
+      </c>
+      <c r="AZ13" s="5">
+        <v>10</v>
+      </c>
+      <c r="BA13" s="57">
+        <v>9.23257084797239</v>
+      </c>
+      <c r="BB13" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="38">
+        <v>14</v>
+      </c>
+      <c r="BD13" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="7">
+        <f t="shared" si="4"/>
+        <v>4.76742915202761</v>
+      </c>
+      <c r="BG13" s="5">
+        <v>10</v>
+      </c>
+      <c r="BH13" s="57">
+        <v>15.011602219330699</v>
+      </c>
+      <c r="BI13" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="38">
+        <v>14</v>
+      </c>
+      <c r="BK13" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="7">
+        <f t="shared" si="5"/>
+        <v>1.0116022193306993</v>
+      </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -7055,8 +7816,65 @@
         <f t="shared" si="2"/>
         <v>2.2643945551504903</v>
       </c>
+      <c r="AS14" s="5">
+        <v>11</v>
+      </c>
+      <c r="AT14" s="57">
+        <v>9.7356054448495097</v>
+      </c>
+      <c r="AU14" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="38">
+        <v>12</v>
+      </c>
+      <c r="AW14" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="7">
+        <f t="shared" si="3"/>
+        <v>2.2643945551504903</v>
+      </c>
+      <c r="AZ14" s="5">
+        <v>11</v>
+      </c>
+      <c r="BA14" s="57">
+        <v>9.7356054448495097</v>
+      </c>
+      <c r="BB14" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="38">
+        <v>12</v>
+      </c>
+      <c r="BD14" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="7">
+        <f t="shared" si="4"/>
+        <v>2.2643945551504903</v>
+      </c>
+      <c r="BG14" s="5">
+        <v>11</v>
+      </c>
+      <c r="BH14" s="57">
+        <v>11.4532218210739</v>
+      </c>
+      <c r="BI14" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="38">
+        <v>12</v>
+      </c>
+      <c r="BK14" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="7">
+        <f t="shared" si="5"/>
+        <v>0.54677817892610037</v>
+      </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -7170,8 +7988,65 @@
         <f t="shared" si="2"/>
         <v>0.83770765214616705</v>
       </c>
+      <c r="AS15" s="5">
+        <v>12</v>
+      </c>
+      <c r="AT15" s="57">
+        <v>9.1816346805217304</v>
+      </c>
+      <c r="AU15" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="38">
+        <v>10</v>
+      </c>
+      <c r="AW15" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="7">
+        <f t="shared" si="3"/>
+        <v>0.81836531947826963</v>
+      </c>
+      <c r="AZ15" s="5">
+        <v>12</v>
+      </c>
+      <c r="BA15" s="57">
+        <v>9.1816346805217304</v>
+      </c>
+      <c r="BB15" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="38">
+        <v>10</v>
+      </c>
+      <c r="BD15" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="7">
+        <f t="shared" si="4"/>
+        <v>0.81836531947826963</v>
+      </c>
+      <c r="BG15" s="5">
+        <v>12</v>
+      </c>
+      <c r="BH15" s="57">
+        <v>9.1757527552111409</v>
+      </c>
+      <c r="BI15" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="38">
+        <v>10</v>
+      </c>
+      <c r="BK15" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="7">
+        <f t="shared" si="5"/>
+        <v>0.82424724478885913</v>
+      </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -7285,8 +8160,65 @@
         <f t="shared" si="2"/>
         <v>1.0825421594007307</v>
       </c>
+      <c r="AS16" s="5">
+        <v>13</v>
+      </c>
+      <c r="AT16" s="57">
+        <v>9.0727006993314596</v>
+      </c>
+      <c r="AU16" s="57">
+        <v>-3.5283670539702099E-2</v>
+      </c>
+      <c r="AV16" s="38">
+        <v>8</v>
+      </c>
+      <c r="AW16" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="7">
+        <f t="shared" si="3"/>
+        <v>1.0732808242733851</v>
+      </c>
+      <c r="AZ16" s="5">
+        <v>13</v>
+      </c>
+      <c r="BA16" s="57">
+        <v>9.0727006993314596</v>
+      </c>
+      <c r="BB16" s="57">
+        <v>-3.5283670539702099E-2</v>
+      </c>
+      <c r="BC16" s="38">
+        <v>8</v>
+      </c>
+      <c r="BD16" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="7">
+        <f t="shared" si="4"/>
+        <v>1.0732808242733851</v>
+      </c>
+      <c r="BG16" s="5">
+        <v>13</v>
+      </c>
+      <c r="BH16" s="57">
+        <v>9.30334721465805</v>
+      </c>
+      <c r="BI16" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="38">
+        <v>8</v>
+      </c>
+      <c r="BK16" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="7">
+        <f t="shared" si="5"/>
+        <v>1.30334721465805</v>
+      </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -7400,8 +8332,65 @@
         <f t="shared" si="2"/>
         <v>3.0847512470957366</v>
       </c>
+      <c r="AS17" s="5">
+        <v>14</v>
+      </c>
+      <c r="AT17" s="57">
+        <v>9.0846707142770295</v>
+      </c>
+      <c r="AU17" s="57">
+        <v>-2.2289929123785499E-2</v>
+      </c>
+      <c r="AV17" s="38">
+        <v>6</v>
+      </c>
+      <c r="AW17" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="7">
+        <f t="shared" si="3"/>
+        <v>3.0847512470957366</v>
+      </c>
+      <c r="AZ17" s="5">
+        <v>14</v>
+      </c>
+      <c r="BA17" s="57">
+        <v>9.0846707142770295</v>
+      </c>
+      <c r="BB17" s="57">
+        <v>-2.2289929123785499E-2</v>
+      </c>
+      <c r="BC17" s="38">
+        <v>6</v>
+      </c>
+      <c r="BD17" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="7">
+        <f t="shared" si="4"/>
+        <v>3.0847512470957366</v>
+      </c>
+      <c r="BG17" s="5">
+        <v>14</v>
+      </c>
+      <c r="BH17" s="57">
+        <v>11.341375723230801</v>
+      </c>
+      <c r="BI17" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="38">
+        <v>6</v>
+      </c>
+      <c r="BK17" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL17" s="7">
+        <f t="shared" si="5"/>
+        <v>5.3413757232308008</v>
+      </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -7514,8 +8503,65 @@
         <f t="shared" si="2"/>
         <v>5.0577145610718919</v>
       </c>
+      <c r="AS18" s="5">
+        <v>15</v>
+      </c>
+      <c r="AT18" s="57">
+        <v>8.6092653583038796</v>
+      </c>
+      <c r="AU18" s="57">
+        <v>-2.08210216800676</v>
+      </c>
+      <c r="AV18" s="38">
+        <v>4</v>
+      </c>
+      <c r="AW18" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="7">
+        <f t="shared" si="3"/>
+        <v>5.0577145610718919</v>
+      </c>
+      <c r="AZ18" s="5">
+        <v>15</v>
+      </c>
+      <c r="BA18" s="57">
+        <v>8.6092653583038796</v>
+      </c>
+      <c r="BB18" s="57">
+        <v>-2.08210216800676</v>
+      </c>
+      <c r="BC18" s="38">
+        <v>4</v>
+      </c>
+      <c r="BD18" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="7">
+        <f t="shared" si="4"/>
+        <v>5.0577145610718919</v>
+      </c>
+      <c r="BG18" s="5">
+        <v>15</v>
+      </c>
+      <c r="BH18" s="57">
+        <v>9.1772486264165103</v>
+      </c>
+      <c r="BI18" s="57">
+        <v>-1.0692276495186901</v>
+      </c>
+      <c r="BJ18" s="38">
+        <v>4</v>
+      </c>
+      <c r="BK18" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL18" s="7">
+        <f t="shared" si="5"/>
+        <v>5.2865065124547899</v>
+      </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -7628,8 +8674,65 @@
         <f t="shared" si="2"/>
         <v>7.1860603872320246</v>
       </c>
+      <c r="AS19" s="5">
+        <v>16</v>
+      </c>
+      <c r="AT19" s="57">
+        <v>1.9712526820032501</v>
+      </c>
+      <c r="AU19" s="57">
+        <v>-7.3828167411721104</v>
+      </c>
+      <c r="AV19" s="38">
+        <v>2</v>
+      </c>
+      <c r="AW19" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="7">
+        <f t="shared" si="3"/>
+        <v>7.3828727093200772</v>
+      </c>
+      <c r="AZ19" s="5">
+        <v>16</v>
+      </c>
+      <c r="BA19" s="57">
+        <v>1.9712526820032501</v>
+      </c>
+      <c r="BB19" s="57">
+        <v>-7.3828167411721104</v>
+      </c>
+      <c r="BC19" s="38">
+        <v>2</v>
+      </c>
+      <c r="BD19" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="7">
+        <f t="shared" si="4"/>
+        <v>7.3828727093200772</v>
+      </c>
+      <c r="BG19" s="5">
+        <v>16</v>
+      </c>
+      <c r="BH19" s="57">
+        <v>4.3648481075322803</v>
+      </c>
+      <c r="BI19" s="57">
+        <v>3.2360475439820902</v>
+      </c>
+      <c r="BJ19" s="38">
+        <v>2</v>
+      </c>
+      <c r="BK19" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL19" s="7">
+        <f t="shared" si="5"/>
+        <v>4.0080556730928185</v>
+      </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -7742,8 +8845,65 @@
         <f t="shared" si="2"/>
         <v>12.255193001970849</v>
       </c>
+      <c r="AS20" s="5">
+        <v>17</v>
+      </c>
+      <c r="AT20" s="57">
+        <v>3.2213515291913501</v>
+      </c>
+      <c r="AU20" s="57">
+        <v>10.771800218138001</v>
+      </c>
+      <c r="AV20" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="7">
+        <f t="shared" si="3"/>
+        <v>11.243166173907657</v>
+      </c>
+      <c r="AZ20" s="5">
+        <v>17</v>
+      </c>
+      <c r="BA20" s="57">
+        <v>3.2213515291913501</v>
+      </c>
+      <c r="BB20" s="57">
+        <v>10.771800218138001</v>
+      </c>
+      <c r="BC20" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="7">
+        <f t="shared" si="4"/>
+        <v>11.243166173907657</v>
+      </c>
+      <c r="BG20" s="5">
+        <v>17</v>
+      </c>
+      <c r="BH20" s="57">
+        <v>14.379898685198301</v>
+      </c>
+      <c r="BI20" s="57">
+        <v>3.4059978912710398</v>
+      </c>
+      <c r="BJ20" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL20" s="7">
+        <f t="shared" si="5"/>
+        <v>14.777763965901967</v>
+      </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -7856,8 +9016,65 @@
         <f t="shared" si="2"/>
         <v>12.247897686998355</v>
       </c>
+      <c r="AS21" s="5">
+        <v>18</v>
+      </c>
+      <c r="AT21" s="57">
+        <v>1.6598997057571601</v>
+      </c>
+      <c r="AU21" s="57">
+        <v>14.134897227335999</v>
+      </c>
+      <c r="AV21" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="39">
+        <v>2</v>
+      </c>
+      <c r="AX21" s="7">
+        <f t="shared" si="3"/>
+        <v>12.247897686998355</v>
+      </c>
+      <c r="AZ21" s="5">
+        <v>18</v>
+      </c>
+      <c r="BA21" s="57">
+        <v>1.6598997057571601</v>
+      </c>
+      <c r="BB21" s="57">
+        <v>14.134897227335999</v>
+      </c>
+      <c r="BC21" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="39">
+        <v>2</v>
+      </c>
+      <c r="BE21" s="7">
+        <f t="shared" si="4"/>
+        <v>12.247897686998355</v>
+      </c>
+      <c r="BG21" s="5">
+        <v>18</v>
+      </c>
+      <c r="BH21" s="57">
+        <v>4.9337282159841402</v>
+      </c>
+      <c r="BI21" s="57">
+        <v>7.5524889495235801</v>
+      </c>
+      <c r="BJ21" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="39">
+        <v>2</v>
+      </c>
+      <c r="BL21" s="7">
+        <f t="shared" si="5"/>
+        <v>7.4277727242949156</v>
+      </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -7970,8 +9187,65 @@
         <f t="shared" si="2"/>
         <v>10.116269811450243</v>
       </c>
+      <c r="AS22" s="5">
+        <v>19</v>
+      </c>
+      <c r="AT22" s="57">
+        <v>-0.89112155878588595</v>
+      </c>
+      <c r="AU22" s="57">
+        <v>14.2217683140336</v>
+      </c>
+      <c r="AV22" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="39">
+        <v>4</v>
+      </c>
+      <c r="AX22" s="7">
+        <f t="shared" si="3"/>
+        <v>10.260538246033406</v>
+      </c>
+      <c r="AZ22" s="5">
+        <v>19</v>
+      </c>
+      <c r="BA22" s="57">
+        <v>-0.89112155878588595</v>
+      </c>
+      <c r="BB22" s="57">
+        <v>14.2217683140336</v>
+      </c>
+      <c r="BC22" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="39">
+        <v>4</v>
+      </c>
+      <c r="BE22" s="7">
+        <f t="shared" si="4"/>
+        <v>10.260538246033406</v>
+      </c>
+      <c r="BG22" s="5">
+        <v>19</v>
+      </c>
+      <c r="BH22" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="57">
+        <v>16.785538486008399</v>
+      </c>
+      <c r="BJ22" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK22" s="39">
+        <v>4</v>
+      </c>
+      <c r="BL22" s="7">
+        <f t="shared" si="5"/>
+        <v>12.785538486008399</v>
+      </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -8084,8 +9358,65 @@
         <f t="shared" si="2"/>
         <v>10.840513307065599</v>
       </c>
+      <c r="AS23" s="5">
+        <v>20</v>
+      </c>
+      <c r="AT23" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="57">
+        <v>16.840513307065599</v>
+      </c>
+      <c r="AV23" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="39">
+        <v>6</v>
+      </c>
+      <c r="AX23" s="7">
+        <f t="shared" si="3"/>
+        <v>10.840513307065599</v>
+      </c>
+      <c r="AZ23" s="5">
+        <v>20</v>
+      </c>
+      <c r="BA23" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="57">
+        <v>16.840513307065599</v>
+      </c>
+      <c r="BC23" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="39">
+        <v>6</v>
+      </c>
+      <c r="BE23" s="7">
+        <f t="shared" si="4"/>
+        <v>10.840513307065599</v>
+      </c>
+      <c r="BG23" s="5">
+        <v>20</v>
+      </c>
+      <c r="BH23" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI23" s="57">
+        <v>17.103229303833</v>
+      </c>
+      <c r="BJ23" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK23" s="39">
+        <v>6</v>
+      </c>
+      <c r="BL23" s="7">
+        <f t="shared" si="5"/>
+        <v>11.103229303833</v>
+      </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -8198,8 +9529,65 @@
         <f t="shared" si="2"/>
         <v>8.1890530605808998</v>
       </c>
+      <c r="AS24" s="5">
+        <v>21</v>
+      </c>
+      <c r="AT24" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="57">
+        <v>16.1890530605809</v>
+      </c>
+      <c r="AV24" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="39">
+        <v>8</v>
+      </c>
+      <c r="AX24" s="7">
+        <f t="shared" si="3"/>
+        <v>8.1890530605808998</v>
+      </c>
+      <c r="AZ24" s="5">
+        <v>21</v>
+      </c>
+      <c r="BA24" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="57">
+        <v>16.1890530605809</v>
+      </c>
+      <c r="BC24" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="39">
+        <v>8</v>
+      </c>
+      <c r="BE24" s="7">
+        <f t="shared" si="4"/>
+        <v>8.1890530605808998</v>
+      </c>
+      <c r="BG24" s="5">
+        <v>21</v>
+      </c>
+      <c r="BH24" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI24" s="57">
+        <v>15.8310471264826</v>
+      </c>
+      <c r="BJ24" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK24" s="39">
+        <v>8</v>
+      </c>
+      <c r="BL24" s="7">
+        <f t="shared" si="5"/>
+        <v>7.8310471264826003</v>
+      </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -8312,8 +9700,65 @@
         <f t="shared" si="2"/>
         <v>5.9398521838183047</v>
       </c>
+      <c r="AS25" s="5">
+        <v>22</v>
+      </c>
+      <c r="AT25" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="57">
+        <v>16.097211824336501</v>
+      </c>
+      <c r="AV25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="39">
+        <v>10</v>
+      </c>
+      <c r="AX25" s="7">
+        <f t="shared" si="3"/>
+        <v>6.097211824336501</v>
+      </c>
+      <c r="AZ25" s="5">
+        <v>22</v>
+      </c>
+      <c r="BA25" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="57">
+        <v>16.097211824336501</v>
+      </c>
+      <c r="BC25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="39">
+        <v>10</v>
+      </c>
+      <c r="BE25" s="7">
+        <f t="shared" si="4"/>
+        <v>6.097211824336501</v>
+      </c>
+      <c r="BG25" s="5">
+        <v>22</v>
+      </c>
+      <c r="BH25" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI25" s="57">
+        <v>16.840513307065599</v>
+      </c>
+      <c r="BJ25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK25" s="39">
+        <v>10</v>
+      </c>
+      <c r="BL25" s="7">
+        <f t="shared" si="5"/>
+        <v>6.8405133070655992</v>
+      </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -8426,8 +9871,65 @@
         <f t="shared" si="2"/>
         <v>3.8612067011594</v>
       </c>
+      <c r="AS26" s="5">
+        <v>23</v>
+      </c>
+      <c r="AT26" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="57">
+        <v>15.8612067011594</v>
+      </c>
+      <c r="AV26" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="39">
+        <v>12</v>
+      </c>
+      <c r="AX26" s="7">
+        <f t="shared" si="3"/>
+        <v>3.8612067011594</v>
+      </c>
+      <c r="AZ26" s="5">
+        <v>23</v>
+      </c>
+      <c r="BA26" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="57">
+        <v>15.8612067011594</v>
+      </c>
+      <c r="BC26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="39">
+        <v>12</v>
+      </c>
+      <c r="BE26" s="7">
+        <f t="shared" si="4"/>
+        <v>3.8612067011594</v>
+      </c>
+      <c r="BG26" s="5">
+        <v>23</v>
+      </c>
+      <c r="BH26" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI26" s="57">
+        <v>15.7293093837439</v>
+      </c>
+      <c r="BJ26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="39">
+        <v>12</v>
+      </c>
+      <c r="BL26" s="7">
+        <f t="shared" si="5"/>
+        <v>3.7293093837438995</v>
+      </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -8540,8 +10042,65 @@
         <f t="shared" si="2"/>
         <v>2.1702054602903011</v>
       </c>
+      <c r="AS27" s="5">
+        <v>24</v>
+      </c>
+      <c r="AT27" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="57">
+        <v>16.170205460290301</v>
+      </c>
+      <c r="AV27" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="39">
+        <v>14</v>
+      </c>
+      <c r="AX27" s="7">
+        <f t="shared" si="3"/>
+        <v>2.1702054602903011</v>
+      </c>
+      <c r="AZ27" s="5">
+        <v>24</v>
+      </c>
+      <c r="BA27" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="57">
+        <v>16.170205460290301</v>
+      </c>
+      <c r="BC27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="39">
+        <v>14</v>
+      </c>
+      <c r="BE27" s="7">
+        <f t="shared" si="4"/>
+        <v>2.1702054602903011</v>
+      </c>
+      <c r="BG27" s="5">
+        <v>24</v>
+      </c>
+      <c r="BH27" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI27" s="57">
+        <v>15.730293698088801</v>
+      </c>
+      <c r="BJ27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK27" s="39">
+        <v>14</v>
+      </c>
+      <c r="BL27" s="7">
+        <f t="shared" si="5"/>
+        <v>1.7302936980888006</v>
+      </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -8654,8 +10213,65 @@
         <f t="shared" si="2"/>
         <v>0.10382398999499998</v>
       </c>
+      <c r="AS28" s="5">
+        <v>25</v>
+      </c>
+      <c r="AT28" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="57">
+        <v>15.896176010005</v>
+      </c>
+      <c r="AV28" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="39">
+        <v>16</v>
+      </c>
+      <c r="AX28" s="7">
+        <f t="shared" si="3"/>
+        <v>0.10382398999499998</v>
+      </c>
+      <c r="AZ28" s="5">
+        <v>25</v>
+      </c>
+      <c r="BA28" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="57">
+        <v>15.896176010005</v>
+      </c>
+      <c r="BC28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="39">
+        <v>16</v>
+      </c>
+      <c r="BE28" s="7">
+        <f t="shared" si="4"/>
+        <v>0.10382398999499998</v>
+      </c>
+      <c r="BG28" s="5">
+        <v>25</v>
+      </c>
+      <c r="BH28" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI28" s="57">
+        <v>16.4020943733825</v>
+      </c>
+      <c r="BJ28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK28" s="39">
+        <v>16</v>
+      </c>
+      <c r="BL28" s="7">
+        <f t="shared" si="5"/>
+        <v>0.40209437338249998</v>
+      </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -8768,8 +10384,65 @@
         <f t="shared" si="2"/>
         <v>2.0248440741100993</v>
       </c>
+      <c r="AS29" s="5">
+        <v>26</v>
+      </c>
+      <c r="AT29" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="57">
+        <v>15.975155925889901</v>
+      </c>
+      <c r="AV29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="39">
+        <v>18</v>
+      </c>
+      <c r="AX29" s="7">
+        <f t="shared" si="3"/>
+        <v>2.0248440741100993</v>
+      </c>
+      <c r="AZ29" s="5">
+        <v>26</v>
+      </c>
+      <c r="BA29" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="57">
+        <v>15.975155925889901</v>
+      </c>
+      <c r="BC29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="39">
+        <v>18</v>
+      </c>
+      <c r="BE29" s="7">
+        <f t="shared" si="4"/>
+        <v>2.0248440741100993</v>
+      </c>
+      <c r="BG29" s="5">
+        <v>26</v>
+      </c>
+      <c r="BH29" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI29" s="57">
+        <v>17.135676061942402</v>
+      </c>
+      <c r="BJ29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK29" s="39">
+        <v>18</v>
+      </c>
+      <c r="BL29" s="7">
+        <f t="shared" si="5"/>
+        <v>0.86432393805759844</v>
+      </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -8882,8 +10555,65 @@
         <f t="shared" si="2"/>
         <v>8.7037866471748018</v>
       </c>
+      <c r="AS30" s="5">
+        <v>27</v>
+      </c>
+      <c r="AT30" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="57">
+        <v>28.703786647174802</v>
+      </c>
+      <c r="AV30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="39">
+        <v>20</v>
+      </c>
+      <c r="AX30" s="7">
+        <f t="shared" si="3"/>
+        <v>8.7037866471748018</v>
+      </c>
+      <c r="AZ30" s="5">
+        <v>27</v>
+      </c>
+      <c r="BA30" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="57">
+        <v>28.703786647174802</v>
+      </c>
+      <c r="BC30" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD30" s="39">
+        <v>20</v>
+      </c>
+      <c r="BE30" s="7">
+        <f t="shared" si="4"/>
+        <v>8.7037866471748018</v>
+      </c>
+      <c r="BG30" s="5">
+        <v>27</v>
+      </c>
+      <c r="BH30" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI30" s="57">
+        <v>21.5643197288836</v>
+      </c>
+      <c r="BJ30" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK30" s="39">
+        <v>20</v>
+      </c>
+      <c r="BL30" s="7">
+        <f t="shared" si="5"/>
+        <v>1.5643197288835999</v>
+      </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -8996,8 +10726,65 @@
         <f t="shared" si="2"/>
         <v>3.9638448019939005</v>
       </c>
+      <c r="AS31" s="5">
+        <v>28</v>
+      </c>
+      <c r="AT31" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="57">
+        <v>25.963844801993901</v>
+      </c>
+      <c r="AV31" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="39">
+        <v>22</v>
+      </c>
+      <c r="AX31" s="7">
+        <f t="shared" si="3"/>
+        <v>3.9638448019939005</v>
+      </c>
+      <c r="AZ31" s="5">
+        <v>28</v>
+      </c>
+      <c r="BA31" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="57">
+        <v>25.963844801993901</v>
+      </c>
+      <c r="BC31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD31" s="39">
+        <v>22</v>
+      </c>
+      <c r="BE31" s="7">
+        <f t="shared" si="4"/>
+        <v>3.9638448019939005</v>
+      </c>
+      <c r="BG31" s="5">
+        <v>28</v>
+      </c>
+      <c r="BH31" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI31" s="57">
+        <v>15.6</v>
+      </c>
+      <c r="BJ31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK31" s="39">
+        <v>22</v>
+      </c>
+      <c r="BL31" s="7">
+        <f t="shared" si="5"/>
+        <v>6.4</v>
+      </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -9073,7 +10860,7 @@
         <v>6.7692347000297985</v>
       </c>
       <c r="AE32" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF32" s="57">
         <v>0</v>
@@ -9110,8 +10897,61 @@
         <f t="shared" si="2"/>
         <v>6.7692347000297985</v>
       </c>
+      <c r="AS32" s="5">
+        <v>29</v>
+      </c>
+      <c r="AT32" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="57">
+        <v>30.769234700029799</v>
+      </c>
+      <c r="AV32" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="39">
+        <v>24</v>
+      </c>
+      <c r="AX32" s="7">
+        <f t="shared" si="3"/>
+        <v>6.7692347000297985</v>
+      </c>
+      <c r="AZ32" s="5">
+        <v>29</v>
+      </c>
+      <c r="BA32" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB32" s="57">
+        <v>30.769234700029799</v>
+      </c>
+      <c r="BC32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD32" s="39">
+        <v>24</v>
+      </c>
+      <c r="BE32" s="7">
+        <f t="shared" si="4"/>
+        <v>6.7692347000297985</v>
+      </c>
+      <c r="BG32" s="5">
+        <v>29</v>
+      </c>
+      <c r="BH32" s="57"/>
+      <c r="BI32" s="57"/>
+      <c r="BJ32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK32" s="39">
+        <v>24</v>
+      </c>
+      <c r="BL32" s="7">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -9187,7 +11027,7 @@
         <v>4.7232029927759989</v>
       </c>
       <c r="AE33" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF33" s="57">
         <v>0</v>
@@ -9224,8 +11064,65 @@
         <f t="shared" si="2"/>
         <v>4.7232029927759989</v>
       </c>
+      <c r="AS33" s="5">
+        <v>30</v>
+      </c>
+      <c r="AT33" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="57">
+        <v>30.723202992775999</v>
+      </c>
+      <c r="AV33" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="39">
+        <v>26</v>
+      </c>
+      <c r="AX33" s="7">
+        <f t="shared" si="3"/>
+        <v>4.7232029927759989</v>
+      </c>
+      <c r="AZ33" s="5">
+        <v>30</v>
+      </c>
+      <c r="BA33" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB33" s="57">
+        <v>30.723202992775999</v>
+      </c>
+      <c r="BC33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD33" s="39">
+        <v>26</v>
+      </c>
+      <c r="BE33" s="7">
+        <f t="shared" si="4"/>
+        <v>4.7232029927759989</v>
+      </c>
+      <c r="BG33" s="5">
+        <v>30</v>
+      </c>
+      <c r="BH33" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI33" s="57">
+        <v>15.6</v>
+      </c>
+      <c r="BJ33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK33" s="39">
+        <v>26</v>
+      </c>
+      <c r="BL33" s="7">
+        <f t="shared" si="5"/>
+        <v>10.4</v>
+      </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -9301,7 +11198,7 @@
         <v>2.9121470673555017</v>
       </c>
       <c r="AE34" s="5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AF34" s="57">
         <v>0</v>
@@ -9338,8 +11235,65 @@
         <f t="shared" si="2"/>
         <v>2.9121470673555017</v>
       </c>
+      <c r="AS34" s="5">
+        <v>31</v>
+      </c>
+      <c r="AT34" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="57">
+        <v>30.912147067355502</v>
+      </c>
+      <c r="AV34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="39">
+        <v>28</v>
+      </c>
+      <c r="AX34" s="7">
+        <f t="shared" si="3"/>
+        <v>2.9121470673555017</v>
+      </c>
+      <c r="AZ34" s="5">
+        <v>31</v>
+      </c>
+      <c r="BA34" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB34" s="57">
+        <v>30.912147067355502</v>
+      </c>
+      <c r="BC34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD34" s="39">
+        <v>28</v>
+      </c>
+      <c r="BE34" s="7">
+        <f t="shared" si="4"/>
+        <v>2.9121470673555017</v>
+      </c>
+      <c r="BG34" s="5">
+        <v>31</v>
+      </c>
+      <c r="BH34" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI34" s="57">
+        <v>15.6</v>
+      </c>
+      <c r="BJ34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK34" s="39">
+        <v>28</v>
+      </c>
+      <c r="BL34" s="7">
+        <f t="shared" si="5"/>
+        <v>12.4</v>
+      </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -9415,7 +11369,7 @@
         <v>0.78496068064790825</v>
       </c>
       <c r="AE35" s="5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF35" s="57">
         <v>0</v>
@@ -9452,8 +11406,61 @@
         <f t="shared" si="2"/>
         <v>0.78225402856480031</v>
       </c>
+      <c r="AS35" s="5">
+        <v>32</v>
+      </c>
+      <c r="AT35" s="57">
+        <v>3.2151118481120098E-4</v>
+      </c>
+      <c r="AU35" s="57">
+        <v>30.784960614804199</v>
+      </c>
+      <c r="AV35" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="39">
+        <v>30</v>
+      </c>
+      <c r="AX35" s="7">
+        <f t="shared" si="3"/>
+        <v>0.78496068064790825</v>
+      </c>
+      <c r="AZ35" s="5">
+        <v>32</v>
+      </c>
+      <c r="BA35" s="57">
+        <v>3.2151118481120098E-4</v>
+      </c>
+      <c r="BB35" s="57">
+        <v>30.784960614804199</v>
+      </c>
+      <c r="BC35" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD35" s="39">
+        <v>30</v>
+      </c>
+      <c r="BE35" s="7">
+        <f t="shared" si="4"/>
+        <v>0.78496068064790825</v>
+      </c>
+      <c r="BG35" s="5">
+        <v>32</v>
+      </c>
+      <c r="BH35" s="57"/>
+      <c r="BI35" s="57"/>
+      <c r="BJ35" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK35" s="39">
+        <v>30</v>
+      </c>
+      <c r="BL35" s="7">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -9529,7 +11536,7 @@
         <v>1.2734511607305983</v>
       </c>
       <c r="AE36" s="5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AF36" s="57">
         <v>0</v>
@@ -9566,8 +11573,65 @@
         <f t="shared" si="2"/>
         <v>1.2881993049252003</v>
       </c>
+      <c r="AS36" s="5">
+        <v>33</v>
+      </c>
+      <c r="AT36" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="57">
+        <v>30.7118006950748</v>
+      </c>
+      <c r="AV36" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="39">
+        <v>32</v>
+      </c>
+      <c r="AX36" s="7">
+        <f t="shared" si="3"/>
+        <v>1.2881993049252003</v>
+      </c>
+      <c r="AZ36" s="5">
+        <v>33</v>
+      </c>
+      <c r="BA36" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="57">
+        <v>30.7118006950748</v>
+      </c>
+      <c r="BC36" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD36" s="39">
+        <v>32</v>
+      </c>
+      <c r="BE36" s="7">
+        <f t="shared" si="4"/>
+        <v>1.2881993049252003</v>
+      </c>
+      <c r="BG36" s="5">
+        <v>33</v>
+      </c>
+      <c r="BH36" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI36" s="57">
+        <v>31.335164774519502</v>
+      </c>
+      <c r="BJ36" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK36" s="39">
+        <v>32</v>
+      </c>
+      <c r="BL36" s="7">
+        <f t="shared" si="5"/>
+        <v>0.66483522548049834</v>
+      </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -9643,7 +11707,7 @@
         <v>3.1328153731475012</v>
       </c>
       <c r="AE37" s="5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF37" s="57">
         <v>0</v>
@@ -9680,8 +11744,65 @@
         <f t="shared" si="2"/>
         <v>3.1359445623759008</v>
       </c>
+      <c r="AS37" s="5">
+        <v>34</v>
+      </c>
+      <c r="AT37" s="57">
+        <v>2.8661403738725901E-4</v>
+      </c>
+      <c r="AU37" s="57">
+        <v>30.869407845346601</v>
+      </c>
+      <c r="AV37" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW37" s="39">
+        <v>34</v>
+      </c>
+      <c r="AX37" s="7">
+        <f t="shared" si="3"/>
+        <v>3.1305921677735382</v>
+      </c>
+      <c r="AZ37" s="5">
+        <v>34</v>
+      </c>
+      <c r="BA37" s="57">
+        <v>2.8661403738725901E-4</v>
+      </c>
+      <c r="BB37" s="57">
+        <v>30.869407845346601</v>
+      </c>
+      <c r="BC37" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD37" s="39">
+        <v>34</v>
+      </c>
+      <c r="BE37" s="7">
+        <f t="shared" si="4"/>
+        <v>3.1305921677735382</v>
+      </c>
+      <c r="BG37" s="5">
+        <v>34</v>
+      </c>
+      <c r="BH37" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI37" s="57">
+        <v>38.066081929588997</v>
+      </c>
+      <c r="BJ37" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK37" s="39">
+        <v>34</v>
+      </c>
+      <c r="BL37" s="7">
+        <f t="shared" si="5"/>
+        <v>4.0660819295889965</v>
+      </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -9757,7 +11878,7 @@
         <v>3.2409519760056966</v>
       </c>
       <c r="AE38" s="5">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF38" s="57">
         <v>0</v>
@@ -9794,8 +11915,65 @@
         <f t="shared" si="2"/>
         <v>3.6214056862415021</v>
       </c>
+      <c r="AS38" s="5">
+        <v>35</v>
+      </c>
+      <c r="AT38" s="57">
+        <v>1.21666990864597E-2</v>
+      </c>
+      <c r="AU38" s="57">
+        <v>39.7360134916226</v>
+      </c>
+      <c r="AV38" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="39">
+        <v>36</v>
+      </c>
+      <c r="AX38" s="7">
+        <f t="shared" si="3"/>
+        <v>3.7360333026022068</v>
+      </c>
+      <c r="AZ38" s="5">
+        <v>35</v>
+      </c>
+      <c r="BA38" s="57">
+        <v>1.21666990864597E-2</v>
+      </c>
+      <c r="BB38" s="57">
+        <v>39.7360134916226</v>
+      </c>
+      <c r="BC38" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD38" s="39">
+        <v>36</v>
+      </c>
+      <c r="BE38" s="7">
+        <f t="shared" si="4"/>
+        <v>3.7360333026022068</v>
+      </c>
+      <c r="BG38" s="5">
+        <v>35</v>
+      </c>
+      <c r="BH38" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI38" s="57">
+        <v>40.1801022813858</v>
+      </c>
+      <c r="BJ38" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK38" s="39">
+        <v>36</v>
+      </c>
+      <c r="BL38" s="7">
+        <f t="shared" si="5"/>
+        <v>4.1801022813857998</v>
+      </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -9871,7 +12049,7 @@
         <v>4.7071791986992011</v>
       </c>
       <c r="AE39" s="5">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF39" s="57">
         <v>4.5383275141398999E-3</v>
@@ -9908,8 +12086,65 @@
         <f t="shared" si="2"/>
         <v>4.6425633447866019</v>
       </c>
+      <c r="AS39" s="5">
+        <v>36</v>
+      </c>
+      <c r="AT39" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="57">
+        <v>42.642563344786602</v>
+      </c>
+      <c r="AV39" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="39">
+        <v>38</v>
+      </c>
+      <c r="AX39" s="7">
+        <f t="shared" si="3"/>
+        <v>4.6425633447866019</v>
+      </c>
+      <c r="AZ39" s="5">
+        <v>36</v>
+      </c>
+      <c r="BA39" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB39" s="57">
+        <v>42.642563344786602</v>
+      </c>
+      <c r="BC39" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD39" s="39">
+        <v>38</v>
+      </c>
+      <c r="BE39" s="7">
+        <f t="shared" si="4"/>
+        <v>4.6425633447866019</v>
+      </c>
+      <c r="BG39" s="5">
+        <v>36</v>
+      </c>
+      <c r="BH39" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI39" s="57">
+        <v>40.654893099196897</v>
+      </c>
+      <c r="BJ39" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK39" s="39">
+        <v>38</v>
+      </c>
+      <c r="BL39" s="7">
+        <f t="shared" si="5"/>
+        <v>2.6548930991968973</v>
+      </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -9985,7 +12220,7 @@
         <v>3.9973204894314023</v>
       </c>
       <c r="AE40" s="5">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF40" s="57">
         <v>1.82926971537202E-3</v>
@@ -10022,8 +12257,65 @@
         <f t="shared" si="2"/>
         <v>4.0484061855426079</v>
       </c>
+      <c r="AS40" s="5">
+        <v>37</v>
+      </c>
+      <c r="AT40" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="57">
+        <v>43.961458587045797</v>
+      </c>
+      <c r="AV40" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="39">
+        <v>40</v>
+      </c>
+      <c r="AX40" s="7">
+        <f t="shared" si="3"/>
+        <v>3.9614585870457972</v>
+      </c>
+      <c r="AZ40" s="5">
+        <v>37</v>
+      </c>
+      <c r="BA40" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB40" s="57">
+        <v>43.961458587045797</v>
+      </c>
+      <c r="BC40" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD40" s="39">
+        <v>40</v>
+      </c>
+      <c r="BE40" s="7">
+        <f t="shared" si="4"/>
+        <v>3.9614585870457972</v>
+      </c>
+      <c r="BG40" s="5">
+        <v>37</v>
+      </c>
+      <c r="BH40" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI40" s="57">
+        <v>43.629347504019201</v>
+      </c>
+      <c r="BJ40" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK40" s="39">
+        <v>40</v>
+      </c>
+      <c r="BL40" s="7">
+        <f t="shared" si="5"/>
+        <v>3.6293475040192007</v>
+      </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -10099,7 +12391,7 @@
         <v>2.1347308363568018</v>
       </c>
       <c r="AE41" s="5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF41" s="57">
         <v>0</v>
@@ -10136,8 +12428,65 @@
         <f t="shared" si="2"/>
         <v>2.1562100591034601</v>
       </c>
+      <c r="AS41" s="5">
+        <v>38</v>
+      </c>
+      <c r="AT41" s="57">
+        <v>9.1143412325827705E-3</v>
+      </c>
+      <c r="AU41" s="57">
+        <v>44.156190795769902</v>
+      </c>
+      <c r="AV41" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="39">
+        <v>42</v>
+      </c>
+      <c r="AX41" s="7">
+        <f t="shared" si="3"/>
+        <v>2.1562100591034601</v>
+      </c>
+      <c r="AZ41" s="5">
+        <v>38</v>
+      </c>
+      <c r="BA41" s="57">
+        <v>9.1143412325827705E-3</v>
+      </c>
+      <c r="BB41" s="57">
+        <v>44.156190795769902</v>
+      </c>
+      <c r="BC41" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD41" s="39">
+        <v>42</v>
+      </c>
+      <c r="BE41" s="7">
+        <f t="shared" si="4"/>
+        <v>2.1562100591034601</v>
+      </c>
+      <c r="BG41" s="5">
+        <v>38</v>
+      </c>
+      <c r="BH41" s="57">
+        <v>4.5383275141398999E-3</v>
+      </c>
+      <c r="BI41" s="57">
+        <v>44.043965462390503</v>
+      </c>
+      <c r="BJ41" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK41" s="39">
+        <v>42</v>
+      </c>
+      <c r="BL41" s="7">
+        <f t="shared" si="5"/>
+        <v>2.0439705007318101</v>
+      </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -10213,7 +12562,7 @@
         <v>0.1376083660133034</v>
       </c>
       <c r="AE42" s="5">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AF42" s="57">
         <v>2.04155181550775E-2</v>
@@ -10250,8 +12599,65 @@
         <f t="shared" si="2"/>
         <v>0.11845532920619917</v>
       </c>
+      <c r="AS42" s="5">
+        <v>39</v>
+      </c>
+      <c r="AT42" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU42" s="57">
+        <v>44.118455329206199</v>
+      </c>
+      <c r="AV42" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW42" s="39">
+        <v>44</v>
+      </c>
+      <c r="AX42" s="7">
+        <f t="shared" si="3"/>
+        <v>0.11845532920619917</v>
+      </c>
+      <c r="AZ42" s="5">
+        <v>39</v>
+      </c>
+      <c r="BA42" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB42" s="57">
+        <v>44.118455329206199</v>
+      </c>
+      <c r="BC42" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD42" s="39">
+        <v>44</v>
+      </c>
+      <c r="BE42" s="7">
+        <f t="shared" si="4"/>
+        <v>0.11845532920619917</v>
+      </c>
+      <c r="BG42" s="5">
+        <v>39</v>
+      </c>
+      <c r="BH42" s="57">
+        <v>1.82926971537202E-3</v>
+      </c>
+      <c r="BI42" s="57">
+        <v>44.195145765563602</v>
+      </c>
+      <c r="BJ42" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK42" s="39">
+        <v>44</v>
+      </c>
+      <c r="BL42" s="7">
+        <f t="shared" si="5"/>
+        <v>0.19515433903732676</v>
+      </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -10327,7 +12733,7 @@
         <v>1.8105478800569017</v>
       </c>
       <c r="AE43" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF43" s="57">
         <v>1.4665953874211299</v>
@@ -10364,8 +12770,65 @@
         <f t="shared" si="2"/>
         <v>1.8048046678864447</v>
       </c>
+      <c r="AS43" s="5">
+        <v>40</v>
+      </c>
+      <c r="AT43" s="57">
+        <v>2.3024783783307801E-3</v>
+      </c>
+      <c r="AU43" s="57">
+        <v>44.195196800806798</v>
+      </c>
+      <c r="AV43" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="39">
+        <v>46</v>
+      </c>
+      <c r="AX43" s="7">
+        <f t="shared" si="3"/>
+        <v>1.8048046678864447</v>
+      </c>
+      <c r="AZ43" s="5">
+        <v>40</v>
+      </c>
+      <c r="BA43" s="57">
+        <v>2.3024783783307801E-3</v>
+      </c>
+      <c r="BB43" s="57">
+        <v>44.195196800806798</v>
+      </c>
+      <c r="BC43" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD43" s="39">
+        <v>46</v>
+      </c>
+      <c r="BE43" s="7">
+        <f t="shared" si="4"/>
+        <v>1.8048046678864447</v>
+      </c>
+      <c r="BG43" s="5">
+        <v>40</v>
+      </c>
+      <c r="BH43" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI43" s="57">
+        <v>44.166174498991602</v>
+      </c>
+      <c r="BJ43" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK43" s="39">
+        <v>46</v>
+      </c>
+      <c r="BL43" s="7">
+        <f t="shared" si="5"/>
+        <v>1.8338255010083984</v>
+      </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>41</v>
       </c>
@@ -10441,7 +12904,7 @@
         <v>3.9492820801300965</v>
       </c>
       <c r="AE44" s="5">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AF44" s="57">
         <v>4.4413649841435996</v>
@@ -10478,8 +12941,65 @@
         <f t="shared" si="2"/>
         <v>3.4103297544289948</v>
       </c>
+      <c r="AS44" s="5">
+        <v>41</v>
+      </c>
+      <c r="AT44" s="57">
+        <v>0.216942125545245</v>
+      </c>
+      <c r="AU44" s="57">
+        <v>44.596577436152302</v>
+      </c>
+      <c r="AV44" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="39">
+        <v>48</v>
+      </c>
+      <c r="AX44" s="7">
+        <f t="shared" si="3"/>
+        <v>3.4103297544289948</v>
+      </c>
+      <c r="AZ44" s="5">
+        <v>41</v>
+      </c>
+      <c r="BA44" s="57">
+        <v>0.216942125545245</v>
+      </c>
+      <c r="BB44" s="57">
+        <v>44.596577436152302</v>
+      </c>
+      <c r="BC44" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD44" s="39">
+        <v>48</v>
+      </c>
+      <c r="BE44" s="7">
+        <f t="shared" si="4"/>
+        <v>3.4103297544289948</v>
+      </c>
+      <c r="BG44" s="5">
+        <v>41</v>
+      </c>
+      <c r="BH44" s="57">
+        <v>2.04155181550775E-2</v>
+      </c>
+      <c r="BI44" s="57">
+        <v>44.225607146724002</v>
+      </c>
+      <c r="BJ44" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK44" s="39">
+        <v>48</v>
+      </c>
+      <c r="BL44" s="7">
+        <f t="shared" si="5"/>
+        <v>3.7744480661737114</v>
+      </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -10555,7 +13075,7 @@
         <v>2.1979376026665141</v>
       </c>
       <c r="AE45" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF45" s="57">
         <v>4.5922342889007597</v>
@@ -10592,8 +13112,65 @@
         <f t="shared" si="2"/>
         <v>2.4045972317854534</v>
       </c>
+      <c r="AS45" s="5">
+        <v>42</v>
+      </c>
+      <c r="AT45" s="57">
+        <v>2.16379704566251</v>
+      </c>
+      <c r="AU45" s="57">
+        <v>48.951157689501201</v>
+      </c>
+      <c r="AV45" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="39">
+        <v>50</v>
+      </c>
+      <c r="AX45" s="7">
+        <f t="shared" si="3"/>
+        <v>2.4045972317854534</v>
+      </c>
+      <c r="AZ45" s="5">
+        <v>42</v>
+      </c>
+      <c r="BA45" s="57">
+        <v>2.16379704566251</v>
+      </c>
+      <c r="BB45" s="57">
+        <v>48.951157689501201</v>
+      </c>
+      <c r="BC45" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD45" s="39">
+        <v>50</v>
+      </c>
+      <c r="BE45" s="7">
+        <f t="shared" si="4"/>
+        <v>2.4045972317854534</v>
+      </c>
+      <c r="BG45" s="5">
+        <v>42</v>
+      </c>
+      <c r="BH45" s="57">
+        <v>1.4665953874211299</v>
+      </c>
+      <c r="BI45" s="57">
+        <v>47.354160251617401</v>
+      </c>
+      <c r="BJ45" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK45" s="39">
+        <v>50</v>
+      </c>
+      <c r="BL45" s="7">
+        <f t="shared" si="5"/>
+        <v>3.0251231387376989</v>
+      </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>43</v>
       </c>
@@ -10669,7 +13246,7 @@
         <v>3.0864228812955776</v>
       </c>
       <c r="AE46" s="5">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AF46" s="57">
         <v>6.0411062347628803</v>
@@ -10706,8 +13283,65 @@
         <f t="shared" si="2"/>
         <v>3.5340731596994477</v>
       </c>
+      <c r="AS46" s="5">
+        <v>43</v>
+      </c>
+      <c r="AT46" s="57">
+        <v>3.5312304346543</v>
+      </c>
+      <c r="AU46" s="57">
+        <v>52.1417205541876</v>
+      </c>
+      <c r="AV46" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="39">
+        <v>52</v>
+      </c>
+      <c r="AX46" s="7">
+        <f t="shared" si="3"/>
+        <v>3.5340731596994477</v>
+      </c>
+      <c r="AZ46" s="5">
+        <v>43</v>
+      </c>
+      <c r="BA46" s="57">
+        <v>3.5312304346543</v>
+      </c>
+      <c r="BB46" s="57">
+        <v>52.1417205541876</v>
+      </c>
+      <c r="BC46" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD46" s="39">
+        <v>52</v>
+      </c>
+      <c r="BE46" s="7">
+        <f t="shared" si="4"/>
+        <v>3.5340731596994477</v>
+      </c>
+      <c r="BG46" s="5">
+        <v>43</v>
+      </c>
+      <c r="BH46" s="57">
+        <v>4.4413649841435996</v>
+      </c>
+      <c r="BI46" s="57">
+        <v>51.200230994088699</v>
+      </c>
+      <c r="BJ46" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK46" s="39">
+        <v>52</v>
+      </c>
+      <c r="BL46" s="7">
+        <f t="shared" si="5"/>
+        <v>4.5127988416495182</v>
+      </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>44</v>
       </c>
@@ -10783,7 +13417,7 @@
         <v>4.7553152809206978</v>
       </c>
       <c r="AE47" s="5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF47" s="57">
         <v>5.0349971250496397</v>
@@ -10820,8 +13454,65 @@
         <f t="shared" si="2"/>
         <v>4.7925394464424897</v>
       </c>
+      <c r="AS47" s="5">
+        <v>44</v>
+      </c>
+      <c r="AT47" s="57">
+        <v>4.5031887257057104</v>
+      </c>
+      <c r="AU47" s="57">
+        <v>55.6400383063771</v>
+      </c>
+      <c r="AV47" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW47" s="39">
+        <v>54</v>
+      </c>
+      <c r="AX47" s="7">
+        <f t="shared" si="3"/>
+        <v>4.7925394464424897</v>
+      </c>
+      <c r="AZ47" s="5">
+        <v>44</v>
+      </c>
+      <c r="BA47" s="57">
+        <v>4.5031887257057104</v>
+      </c>
+      <c r="BB47" s="57">
+        <v>55.6400383063771</v>
+      </c>
+      <c r="BC47" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD47" s="39">
+        <v>54</v>
+      </c>
+      <c r="BE47" s="7">
+        <f t="shared" si="4"/>
+        <v>4.7925394464424897</v>
+      </c>
+      <c r="BG47" s="5">
+        <v>44</v>
+      </c>
+      <c r="BH47" s="57">
+        <v>4.5922342889007597</v>
+      </c>
+      <c r="BI47" s="57">
+        <v>54.974018963407602</v>
+      </c>
+      <c r="BJ47" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK47" s="39">
+        <v>54</v>
+      </c>
+      <c r="BL47" s="7">
+        <f t="shared" si="5"/>
+        <v>4.6943933266433362</v>
+      </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>45</v>
       </c>
@@ -10897,7 +13588,7 @@
         <v>4.8028794240821071</v>
       </c>
       <c r="AE48" s="5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AF48" s="57">
         <v>4.8054442787480403</v>
@@ -10934,8 +13625,65 @@
         <f t="shared" si="2"/>
         <v>4.7338599994167136</v>
       </c>
+      <c r="AS48" s="5">
+        <v>45</v>
+      </c>
+      <c r="AT48" s="57">
+        <v>4.7284961975884103</v>
+      </c>
+      <c r="AU48" s="57">
+        <v>55.774713064139199</v>
+      </c>
+      <c r="AV48" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW48" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX48" s="7">
+        <f t="shared" si="3"/>
+        <v>4.7338599994167136</v>
+      </c>
+      <c r="AZ48" s="5">
+        <v>45</v>
+      </c>
+      <c r="BA48" s="57">
+        <v>4.7284961975884103</v>
+      </c>
+      <c r="BB48" s="57">
+        <v>55.774713064139199</v>
+      </c>
+      <c r="BC48" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD48" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE48" s="7">
+        <f t="shared" si="4"/>
+        <v>4.7338599994167136</v>
+      </c>
+      <c r="BG48" s="5">
+        <v>45</v>
+      </c>
+      <c r="BH48" s="57">
+        <v>6.0411062347628803</v>
+      </c>
+      <c r="BI48" s="57">
+        <v>40.642084312156797</v>
+      </c>
+      <c r="BJ48" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK48" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL48" s="7">
+        <f t="shared" si="5"/>
+        <v>16.503349321110285</v>
+      </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>46</v>
       </c>
@@ -11011,7 +13759,7 @@
         <v>3.0838416652966103</v>
       </c>
       <c r="AE49" s="5">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF49" s="57">
         <v>7.7787559587209003</v>
@@ -11048,8 +13796,65 @@
         <f t="shared" si="2"/>
         <v>3.9892432565539</v>
       </c>
+      <c r="AS49" s="5">
+        <v>46</v>
+      </c>
+      <c r="AT49" s="57">
+        <v>5.9892432565539</v>
+      </c>
+      <c r="AU49" s="57">
+        <v>56</v>
+      </c>
+      <c r="AV49" s="38">
+        <v>2</v>
+      </c>
+      <c r="AW49" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX49" s="7">
+        <f t="shared" si="3"/>
+        <v>3.9892432565539</v>
+      </c>
+      <c r="AZ49" s="5">
+        <v>46</v>
+      </c>
+      <c r="BA49" s="57">
+        <v>5.9892432565539</v>
+      </c>
+      <c r="BB49" s="57">
+        <v>56</v>
+      </c>
+      <c r="BC49" s="38">
+        <v>2</v>
+      </c>
+      <c r="BD49" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE49" s="7">
+        <f t="shared" si="4"/>
+        <v>3.9892432565539</v>
+      </c>
+      <c r="BG49" s="5">
+        <v>46</v>
+      </c>
+      <c r="BH49" s="57">
+        <v>5.0349971250496397</v>
+      </c>
+      <c r="BI49" s="57">
+        <v>56</v>
+      </c>
+      <c r="BJ49" s="38">
+        <v>2</v>
+      </c>
+      <c r="BK49" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL49" s="7">
+        <f t="shared" si="5"/>
+        <v>3.0349971250496397</v>
+      </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>47</v>
       </c>
@@ -11125,7 +13930,7 @@
         <v>1.7603535000350696</v>
       </c>
       <c r="AE50" s="5">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF50" s="57">
         <v>9.0048348658151305</v>
@@ -11162,8 +13967,65 @@
         <f t="shared" si="2"/>
         <v>1.8448758352657899</v>
       </c>
+      <c r="AS50" s="5">
+        <v>47</v>
+      </c>
+      <c r="AT50" s="57">
+        <v>5.8448758352657899</v>
+      </c>
+      <c r="AU50" s="57">
+        <v>56</v>
+      </c>
+      <c r="AV50" s="38">
+        <v>4</v>
+      </c>
+      <c r="AW50" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX50" s="7">
+        <f t="shared" si="3"/>
+        <v>1.8448758352657899</v>
+      </c>
+      <c r="AZ50" s="5">
+        <v>47</v>
+      </c>
+      <c r="BA50" s="57">
+        <v>5.8448758352657899</v>
+      </c>
+      <c r="BB50" s="57">
+        <v>56</v>
+      </c>
+      <c r="BC50" s="38">
+        <v>4</v>
+      </c>
+      <c r="BD50" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE50" s="7">
+        <f t="shared" si="4"/>
+        <v>1.8448758352657899</v>
+      </c>
+      <c r="BG50" s="5">
+        <v>47</v>
+      </c>
+      <c r="BH50" s="57">
+        <v>4.8054442787480403</v>
+      </c>
+      <c r="BI50" s="57">
+        <v>56</v>
+      </c>
+      <c r="BJ50" s="38">
+        <v>4</v>
+      </c>
+      <c r="BK50" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL50" s="7">
+        <f t="shared" si="5"/>
+        <v>0.80544427874804025</v>
+      </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>48</v>
       </c>
@@ -11239,7 +14101,7 @@
         <v>4.8949041315779596E-2</v>
       </c>
       <c r="AE51" s="5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF51" s="57">
         <v>10.686009173356201</v>
@@ -11276,8 +14138,65 @@
         <f t="shared" si="2"/>
         <v>0.6005512359315599</v>
       </c>
+      <c r="AS51" s="5">
+        <v>48</v>
+      </c>
+      <c r="AT51" s="57">
+        <v>6.6005512359315599</v>
+      </c>
+      <c r="AU51" s="57">
+        <v>56</v>
+      </c>
+      <c r="AV51" s="38">
+        <v>6</v>
+      </c>
+      <c r="AW51" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX51" s="7">
+        <f t="shared" si="3"/>
+        <v>0.6005512359315599</v>
+      </c>
+      <c r="AZ51" s="5">
+        <v>48</v>
+      </c>
+      <c r="BA51" s="57">
+        <v>6.6005512359315599</v>
+      </c>
+      <c r="BB51" s="57">
+        <v>56</v>
+      </c>
+      <c r="BC51" s="38">
+        <v>6</v>
+      </c>
+      <c r="BD51" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE51" s="7">
+        <f t="shared" si="4"/>
+        <v>0.6005512359315599</v>
+      </c>
+      <c r="BG51" s="5">
+        <v>48</v>
+      </c>
+      <c r="BH51" s="57">
+        <v>7.7787559587209003</v>
+      </c>
+      <c r="BI51" s="57">
+        <v>56</v>
+      </c>
+      <c r="BJ51" s="38">
+        <v>6</v>
+      </c>
+      <c r="BK51" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL51" s="7">
+        <f t="shared" si="5"/>
+        <v>1.7787559587209003</v>
+      </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>49</v>
       </c>
@@ -11353,7 +14272,7 @@
         <v>1.9153392818528499</v>
       </c>
       <c r="AE52" s="5">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF52" s="57">
         <v>14.4177592654717</v>
@@ -11390,8 +14309,65 @@
         <f t="shared" si="2"/>
         <v>1.6473325017729303</v>
       </c>
+      <c r="AS52" s="5">
+        <v>49</v>
+      </c>
+      <c r="AT52" s="57">
+        <v>6.3526674982270697</v>
+      </c>
+      <c r="AU52" s="57">
+        <v>56</v>
+      </c>
+      <c r="AV52" s="38">
+        <v>8</v>
+      </c>
+      <c r="AW52" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX52" s="7">
+        <f t="shared" si="3"/>
+        <v>1.6473325017729303</v>
+      </c>
+      <c r="AZ52" s="5">
+        <v>49</v>
+      </c>
+      <c r="BA52" s="57">
+        <v>6.3526674982270697</v>
+      </c>
+      <c r="BB52" s="57">
+        <v>56</v>
+      </c>
+      <c r="BC52" s="38">
+        <v>8</v>
+      </c>
+      <c r="BD52" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE52" s="7">
+        <f t="shared" si="4"/>
+        <v>1.6473325017729303</v>
+      </c>
+      <c r="BG52" s="5">
+        <v>49</v>
+      </c>
+      <c r="BH52" s="57">
+        <v>9.0048348658151305</v>
+      </c>
+      <c r="BI52" s="57">
+        <v>56</v>
+      </c>
+      <c r="BJ52" s="38">
+        <v>8</v>
+      </c>
+      <c r="BK52" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL52" s="7">
+        <f t="shared" si="5"/>
+        <v>1.0048348658151305</v>
+      </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>50</v>
       </c>
@@ -11467,7 +14443,7 @@
         <v>2.6168435254214995</v>
       </c>
       <c r="AE53" s="5">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AF53" s="57">
         <v>13.681077160254301</v>
@@ -11504,8 +14480,65 @@
         <f t="shared" si="2"/>
         <v>2.6168435254214995</v>
       </c>
+      <c r="AS53" s="5">
+        <v>50</v>
+      </c>
+      <c r="AT53" s="57">
+        <v>12.616843525421499</v>
+      </c>
+      <c r="AU53" s="57">
+        <v>56</v>
+      </c>
+      <c r="AV53" s="38">
+        <v>10</v>
+      </c>
+      <c r="AW53" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX53" s="7">
+        <f t="shared" si="3"/>
+        <v>2.6168435254214995</v>
+      </c>
+      <c r="AZ53" s="5">
+        <v>50</v>
+      </c>
+      <c r="BA53" s="57">
+        <v>12.616843525421499</v>
+      </c>
+      <c r="BB53" s="57">
+        <v>56</v>
+      </c>
+      <c r="BC53" s="38">
+        <v>10</v>
+      </c>
+      <c r="BD53" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE53" s="7">
+        <f t="shared" si="4"/>
+        <v>2.6168435254214995</v>
+      </c>
+      <c r="BG53" s="5">
+        <v>50</v>
+      </c>
+      <c r="BH53" s="57">
+        <v>10.686009173356201</v>
+      </c>
+      <c r="BI53" s="57">
+        <v>56</v>
+      </c>
+      <c r="BJ53" s="38">
+        <v>10</v>
+      </c>
+      <c r="BK53" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL53" s="7">
+        <f t="shared" si="5"/>
+        <v>0.68600917335620082</v>
+      </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>51</v>
       </c>
@@ -11581,7 +14614,7 @@
         <v>4.0407023979884009</v>
       </c>
       <c r="AE54" s="5">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AF54" s="57">
         <v>16.934376832869098</v>
@@ -11618,8 +14651,65 @@
         <f t="shared" si="2"/>
         <v>1.6792139699747999</v>
       </c>
+      <c r="AS54" s="5">
+        <v>51</v>
+      </c>
+      <c r="AT54" s="57">
+        <v>13.6792139699748</v>
+      </c>
+      <c r="AU54" s="57">
+        <v>55.999999999999901</v>
+      </c>
+      <c r="AV54" s="38">
+        <v>12</v>
+      </c>
+      <c r="AW54" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX54" s="7">
+        <f t="shared" si="3"/>
+        <v>1.6792139699747999</v>
+      </c>
+      <c r="AZ54" s="5">
+        <v>51</v>
+      </c>
+      <c r="BA54" s="57">
+        <v>13.6792139699748</v>
+      </c>
+      <c r="BB54" s="57">
+        <v>55.999999999999901</v>
+      </c>
+      <c r="BC54" s="38">
+        <v>12</v>
+      </c>
+      <c r="BD54" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE54" s="7">
+        <f t="shared" si="4"/>
+        <v>1.6792139699747999</v>
+      </c>
+      <c r="BG54" s="5">
+        <v>51</v>
+      </c>
+      <c r="BH54" s="57">
+        <v>14.4177592654717</v>
+      </c>
+      <c r="BI54" s="57">
+        <v>55.999999999999901</v>
+      </c>
+      <c r="BJ54" s="38">
+        <v>12</v>
+      </c>
+      <c r="BK54" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL54" s="7">
+        <f t="shared" si="5"/>
+        <v>2.4177592654716999</v>
+      </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>52</v>
       </c>
@@ -11695,7 +14785,7 @@
         <v>1.4676133223762005</v>
       </c>
       <c r="AE55" s="5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AF55" s="57">
         <v>17.490670032792</v>
@@ -11732,8 +14822,65 @@
         <f t="shared" si="2"/>
         <v>9.3825949951300558E-2</v>
       </c>
+      <c r="AS55" s="5">
+        <v>52</v>
+      </c>
+      <c r="AT55" s="57">
+        <v>14.093825949951301</v>
+      </c>
+      <c r="AU55" s="57">
+        <v>55.999999999999901</v>
+      </c>
+      <c r="AV55" s="38">
+        <v>14</v>
+      </c>
+      <c r="AW55" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX55" s="7">
+        <f t="shared" si="3"/>
+        <v>9.3825949951300558E-2</v>
+      </c>
+      <c r="AZ55" s="5">
+        <v>52</v>
+      </c>
+      <c r="BA55" s="57">
+        <v>14.093825949951301</v>
+      </c>
+      <c r="BB55" s="57">
+        <v>55.999999999999901</v>
+      </c>
+      <c r="BC55" s="38">
+        <v>14</v>
+      </c>
+      <c r="BD55" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE55" s="7">
+        <f t="shared" si="4"/>
+        <v>9.3825949951300558E-2</v>
+      </c>
+      <c r="BG55" s="5">
+        <v>52</v>
+      </c>
+      <c r="BH55" s="57">
+        <v>13.681077160254301</v>
+      </c>
+      <c r="BI55" s="57">
+        <v>56</v>
+      </c>
+      <c r="BJ55" s="38">
+        <v>14</v>
+      </c>
+      <c r="BK55" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL55" s="7">
+        <f t="shared" si="5"/>
+        <v>0.31892283974569935</v>
+      </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>53</v>
       </c>
@@ -11809,7 +14956,7 @@
         <v>4.674409235223699</v>
       </c>
       <c r="AE56" s="5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF56" s="57">
         <v>20.0017524599807</v>
@@ -11846,8 +14993,65 @@
         <f t="shared" si="2"/>
         <v>4.5294493643484017</v>
       </c>
+      <c r="AS56" s="5">
+        <v>53</v>
+      </c>
+      <c r="AT56" s="57">
+        <v>20.529449364348402</v>
+      </c>
+      <c r="AU56" s="57">
+        <v>56</v>
+      </c>
+      <c r="AV56" s="38">
+        <v>16</v>
+      </c>
+      <c r="AW56" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX56" s="7">
+        <f t="shared" si="3"/>
+        <v>4.5294493643484017</v>
+      </c>
+      <c r="AZ56" s="5">
+        <v>53</v>
+      </c>
+      <c r="BA56" s="57">
+        <v>20.529449364348402</v>
+      </c>
+      <c r="BB56" s="57">
+        <v>56</v>
+      </c>
+      <c r="BC56" s="38">
+        <v>16</v>
+      </c>
+      <c r="BD56" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE56" s="7">
+        <f t="shared" si="4"/>
+        <v>4.5294493643484017</v>
+      </c>
+      <c r="BG56" s="5">
+        <v>53</v>
+      </c>
+      <c r="BH56" s="57">
+        <v>16.934376832869098</v>
+      </c>
+      <c r="BI56" s="57">
+        <v>56</v>
+      </c>
+      <c r="BJ56" s="38">
+        <v>16</v>
+      </c>
+      <c r="BK56" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL56" s="7">
+        <f t="shared" si="5"/>
+        <v>0.93437683286909845</v>
+      </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>54</v>
       </c>
@@ -11923,7 +15127,7 @@
         <v>5.5557736279029015</v>
       </c>
       <c r="AE57" s="5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AF57" s="57">
         <v>24.762671171236398</v>
@@ -11960,8 +15164,65 @@
         <f t="shared" si="2"/>
         <v>5.4890715077848995</v>
       </c>
+      <c r="AS57" s="5">
+        <v>54</v>
+      </c>
+      <c r="AT57" s="57">
+        <v>23.489071507784899</v>
+      </c>
+      <c r="AU57" s="57">
+        <v>56</v>
+      </c>
+      <c r="AV57" s="38">
+        <v>18</v>
+      </c>
+      <c r="AW57" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX57" s="7">
+        <f t="shared" si="3"/>
+        <v>5.4890715077848995</v>
+      </c>
+      <c r="AZ57" s="5">
+        <v>54</v>
+      </c>
+      <c r="BA57" s="57">
+        <v>23.489071507784899</v>
+      </c>
+      <c r="BB57" s="57">
+        <v>56</v>
+      </c>
+      <c r="BC57" s="38">
+        <v>18</v>
+      </c>
+      <c r="BD57" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE57" s="7">
+        <f t="shared" si="4"/>
+        <v>5.4890715077848995</v>
+      </c>
+      <c r="BG57" s="5">
+        <v>54</v>
+      </c>
+      <c r="BH57" s="57">
+        <v>17.490670032792</v>
+      </c>
+      <c r="BI57" s="57">
+        <v>56</v>
+      </c>
+      <c r="BJ57" s="38">
+        <v>18</v>
+      </c>
+      <c r="BK57" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL57" s="7">
+        <f t="shared" si="5"/>
+        <v>0.50932996720800006</v>
+      </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>55</v>
       </c>
@@ -12037,7 +15298,7 @@
         <v>5.5954333394821987</v>
       </c>
       <c r="AE58" s="5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AF58" s="57">
         <v>25.0791789026581</v>
@@ -12074,8 +15335,65 @@
         <f t="shared" si="2"/>
         <v>5.3022943982431983</v>
       </c>
+      <c r="AS58" s="5">
+        <v>55</v>
+      </c>
+      <c r="AT58" s="57">
+        <v>25.302294398243198</v>
+      </c>
+      <c r="AU58" s="57">
+        <v>56</v>
+      </c>
+      <c r="AV58" s="38">
+        <v>20</v>
+      </c>
+      <c r="AW58" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX58" s="7">
+        <f t="shared" si="3"/>
+        <v>5.3022943982431983</v>
+      </c>
+      <c r="AZ58" s="5">
+        <v>55</v>
+      </c>
+      <c r="BA58" s="57">
+        <v>25.302294398243198</v>
+      </c>
+      <c r="BB58" s="57">
+        <v>56</v>
+      </c>
+      <c r="BC58" s="38">
+        <v>20</v>
+      </c>
+      <c r="BD58" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE58" s="7">
+        <f t="shared" si="4"/>
+        <v>5.3022943982431983</v>
+      </c>
+      <c r="BG58" s="5">
+        <v>55</v>
+      </c>
+      <c r="BH58" s="57">
+        <v>20.0017524599807</v>
+      </c>
+      <c r="BI58" s="57">
+        <v>55.999999999999901</v>
+      </c>
+      <c r="BJ58" s="38">
+        <v>20</v>
+      </c>
+      <c r="BK58" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL58" s="7">
+        <f t="shared" si="5"/>
+        <v>1.7524599807003938E-3</v>
+      </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>56</v>
       </c>
@@ -12151,7 +15469,7 @@
         <v>3.5541196899234002</v>
       </c>
       <c r="AE59" s="5">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AF59" s="57">
         <v>24.9684362485009</v>
@@ -12188,8 +15506,65 @@
         <f t="shared" si="2"/>
         <v>3.4198328560302009</v>
       </c>
+      <c r="AS59" s="5">
+        <v>56</v>
+      </c>
+      <c r="AT59" s="57">
+        <v>25.419832856030201</v>
+      </c>
+      <c r="AU59" s="57">
+        <v>56</v>
+      </c>
+      <c r="AV59" s="38">
+        <v>22</v>
+      </c>
+      <c r="AW59" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX59" s="7">
+        <f t="shared" si="3"/>
+        <v>3.4198328560302009</v>
+      </c>
+      <c r="AZ59" s="5">
+        <v>56</v>
+      </c>
+      <c r="BA59" s="57">
+        <v>25.419832856030201</v>
+      </c>
+      <c r="BB59" s="57">
+        <v>56</v>
+      </c>
+      <c r="BC59" s="38">
+        <v>22</v>
+      </c>
+      <c r="BD59" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE59" s="7">
+        <f t="shared" si="4"/>
+        <v>3.4198328560302009</v>
+      </c>
+      <c r="BG59" s="5">
+        <v>56</v>
+      </c>
+      <c r="BH59" s="57">
+        <v>24.762671171236398</v>
+      </c>
+      <c r="BI59" s="57">
+        <v>56</v>
+      </c>
+      <c r="BJ59" s="38">
+        <v>22</v>
+      </c>
+      <c r="BK59" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL59" s="7">
+        <f t="shared" si="5"/>
+        <v>2.7626711712363985</v>
+      </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>57</v>
       </c>
@@ -12265,7 +15640,7 @@
         <v>1.6526142300110997</v>
       </c>
       <c r="AE60" s="5">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AF60" s="57">
         <v>24.830693065567502</v>
@@ -12302,8 +15677,65 @@
         <f t="shared" si="2"/>
         <v>1.6310723658511996</v>
       </c>
+      <c r="AS60" s="5">
+        <v>57</v>
+      </c>
+      <c r="AT60" s="57">
+        <v>25.6310723658512</v>
+      </c>
+      <c r="AU60" s="57">
+        <v>56</v>
+      </c>
+      <c r="AV60" s="38">
+        <v>24</v>
+      </c>
+      <c r="AW60" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX60" s="7">
+        <f t="shared" si="3"/>
+        <v>1.6310723658511996</v>
+      </c>
+      <c r="AZ60" s="5">
+        <v>57</v>
+      </c>
+      <c r="BA60" s="57">
+        <v>25.6310723658512</v>
+      </c>
+      <c r="BB60" s="57">
+        <v>56</v>
+      </c>
+      <c r="BC60" s="38">
+        <v>24</v>
+      </c>
+      <c r="BD60" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE60" s="7">
+        <f t="shared" si="4"/>
+        <v>1.6310723658511996</v>
+      </c>
+      <c r="BG60" s="5">
+        <v>57</v>
+      </c>
+      <c r="BH60" s="57">
+        <v>25.0791789026581</v>
+      </c>
+      <c r="BI60" s="57">
+        <v>56</v>
+      </c>
+      <c r="BJ60" s="38">
+        <v>24</v>
+      </c>
+      <c r="BK60" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL60" s="7">
+        <f t="shared" si="5"/>
+        <v>1.0791789026581</v>
+      </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>58</v>
       </c>
@@ -12378,25 +15810,6 @@
         <f t="shared" si="0"/>
         <v>0.44396474060710034</v>
       </c>
-      <c r="AE61" s="5">
-        <v>58</v>
-      </c>
-      <c r="AF61" s="57">
-        <v>23.9375657889812</v>
-      </c>
-      <c r="AG61" s="57">
-        <v>55.992095270719197</v>
-      </c>
-      <c r="AH61" s="38">
-        <v>26</v>
-      </c>
-      <c r="AI61" s="39">
-        <v>56</v>
-      </c>
-      <c r="AJ61" s="7">
-        <f t="shared" si="1"/>
-        <v>2.0624493592633359</v>
-      </c>
       <c r="AL61" s="5">
         <v>58</v>
       </c>
@@ -12416,8 +15829,65 @@
         <f t="shared" si="2"/>
         <v>1.1636393216578007</v>
       </c>
+      <c r="AS61" s="5">
+        <v>58</v>
+      </c>
+      <c r="AT61" s="57">
+        <v>24.836360678342199</v>
+      </c>
+      <c r="AU61" s="57">
+        <v>55.999999999999901</v>
+      </c>
+      <c r="AV61" s="38">
+        <v>26</v>
+      </c>
+      <c r="AW61" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX61" s="7">
+        <f t="shared" si="3"/>
+        <v>1.1636393216578007</v>
+      </c>
+      <c r="AZ61" s="5">
+        <v>58</v>
+      </c>
+      <c r="BA61" s="57">
+        <v>24.836360678342199</v>
+      </c>
+      <c r="BB61" s="57">
+        <v>55.999999999999901</v>
+      </c>
+      <c r="BC61" s="38">
+        <v>26</v>
+      </c>
+      <c r="BD61" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE61" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1636393216578007</v>
+      </c>
+      <c r="BG61" s="5">
+        <v>58</v>
+      </c>
+      <c r="BH61" s="57">
+        <v>24.9684362485009</v>
+      </c>
+      <c r="BI61" s="57">
+        <v>55.999999999999901</v>
+      </c>
+      <c r="BJ61" s="38">
+        <v>26</v>
+      </c>
+      <c r="BK61" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL61" s="7">
+        <f t="shared" si="5"/>
+        <v>1.0315637514990996</v>
+      </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>59</v>
       </c>
@@ -12492,24 +15962,13 @@
         <f t="shared" si="0"/>
         <v>2.4489649673256011</v>
       </c>
-      <c r="AE62" s="5">
-        <v>59</v>
-      </c>
-      <c r="AF62" s="57">
-        <v>21.003654973524402</v>
-      </c>
-      <c r="AG62" s="57">
-        <v>55.984318764132297</v>
-      </c>
-      <c r="AH62" s="38">
-        <v>28</v>
-      </c>
-      <c r="AI62" s="39">
-        <v>56</v>
-      </c>
-      <c r="AJ62" s="7">
-        <f t="shared" si="1"/>
-        <v>6.9963625999978145</v>
+      <c r="AE62" s="1"/>
+      <c r="AI62" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ62" s="1">
+        <f>AVERAGE(AJ4:AJ60)</f>
+        <v>4.6666014799698887</v>
       </c>
       <c r="AL62" s="5">
         <v>59</v>
@@ -12530,16 +15989,80 @@
         <f t="shared" si="2"/>
         <v>2.5156571037340996</v>
       </c>
+      <c r="AS62" s="5">
+        <v>59</v>
+      </c>
+      <c r="AT62" s="57">
+        <v>25.4843428962659</v>
+      </c>
+      <c r="AU62" s="57">
+        <v>55.999999999999901</v>
+      </c>
+      <c r="AV62" s="38">
+        <v>28</v>
+      </c>
+      <c r="AW62" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX62" s="7">
+        <f t="shared" si="3"/>
+        <v>2.5156571037340996</v>
+      </c>
+      <c r="AZ62" s="5">
+        <v>59</v>
+      </c>
+      <c r="BA62" s="57">
+        <v>25.4843428962659</v>
+      </c>
+      <c r="BB62" s="57">
+        <v>55.999999999999901</v>
+      </c>
+      <c r="BC62" s="38">
+        <v>28</v>
+      </c>
+      <c r="BD62" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE62" s="7">
+        <f t="shared" si="4"/>
+        <v>2.5156571037340996</v>
+      </c>
+      <c r="BG62" s="5">
+        <v>59</v>
+      </c>
+      <c r="BH62" s="57">
+        <v>24.830693065567502</v>
+      </c>
+      <c r="BI62" s="57">
+        <v>56</v>
+      </c>
+      <c r="BJ62" s="38">
+        <v>28</v>
+      </c>
+      <c r="BK62" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL62" s="7">
+        <f t="shared" si="5"/>
+        <v>3.1693069344324982</v>
+      </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
+      <c r="AI63" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ63" s="56">
+        <f>MAX(AJ4:AJ60)</f>
+        <v>14.777763965901967</v>
+      </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:64" x14ac:dyDescent="0.3">
       <c r="E64" t="s">
         <v>6</v>
       </c>
@@ -12571,13 +16094,12 @@
         <f>AVERAGE(AC4:AC62)</f>
         <v>3.7019810433746114</v>
       </c>
-      <c r="AE64" s="1"/>
       <c r="AI64" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ64" s="1">
-        <f>AVERAGE(AJ4:AJ62)</f>
-        <v>4.6619507850431328</v>
+        <v>16</v>
+      </c>
+      <c r="AJ64" s="58">
+        <f>MIN(AJ4:AJ60)</f>
+        <v>0.12188223768919926</v>
       </c>
       <c r="AL64" s="1"/>
       <c r="AP64" t="s">
@@ -12587,8 +16109,32 @@
         <f>AVERAGE(AQ4:AQ62)</f>
         <v>3.6247258665185047</v>
       </c>
+      <c r="AS64" s="1"/>
+      <c r="AW64" t="s">
+        <v>26</v>
+      </c>
+      <c r="AX64" s="1">
+        <f>AVERAGE(AX4:AX62)</f>
+        <v>3.6153851301826179</v>
+      </c>
+      <c r="AZ64" s="1"/>
+      <c r="BD64" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE64" s="1">
+        <f>AVERAGE(BE4:BE62)</f>
+        <v>3.6153851301826179</v>
+      </c>
+      <c r="BG64" s="1"/>
+      <c r="BK64" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL64" s="1">
+        <f>AVERAGE(BL4:BL62)</f>
+        <v>4.3703061236012104</v>
+      </c>
     </row>
-    <row r="65" spans="5:43" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:64" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>7</v>
       </c>
@@ -12617,12 +16163,13 @@
         <f>MAX(AC4:AC62)</f>
         <v>18.591525681292801</v>
       </c>
+      <c r="AE65" s="4"/>
       <c r="AI65" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ65" s="56">
-        <f>MAX(AJ4:AJ62)</f>
-        <v>14.777763965901967</v>
+        <v>9</v>
+      </c>
+      <c r="AJ65" s="1">
+        <f>_xlfn.STDEV.P(AJ4:AJ60)</f>
+        <v>3.3958343432461593</v>
       </c>
       <c r="AP65" t="s">
         <v>7</v>
@@ -12631,8 +16178,29 @@
         <f>MAX(AQ4:AQ62)</f>
         <v>12.255193001970849</v>
       </c>
+      <c r="AW65" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX65" s="56">
+        <f>MAX(AX4:AX62)</f>
+        <v>12.247897686998355</v>
+      </c>
+      <c r="BD65" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE65" s="56">
+        <f>MAX(BE4:BE62)</f>
+        <v>12.247897686998355</v>
+      </c>
+      <c r="BK65" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL65" s="56">
+        <f>MAX(BL4:BL62)</f>
+        <v>30</v>
+      </c>
     </row>
-    <row r="66" spans="5:43" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:64" x14ac:dyDescent="0.3">
       <c r="E66" t="s">
         <v>16</v>
       </c>
@@ -12662,11 +16230,11 @@
         <v>4.8949041315779596E-2</v>
       </c>
       <c r="AI66" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ66" s="58">
-        <f>MIN(AJ4:AJ62)</f>
-        <v>0.12188223768919926</v>
+        <v>8</v>
+      </c>
+      <c r="AJ66" s="1">
+        <f>_xlfn.VAR.P(AJ4:AJ60)</f>
+        <v>11.531690886770075</v>
       </c>
       <c r="AP66" t="s">
         <v>16</v>
@@ -12675,8 +16243,29 @@
         <f>MIN(AQ4:AQ62)</f>
         <v>9.3825949951300558E-2</v>
       </c>
+      <c r="AW66" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX66" s="58">
+        <f>MIN(AX4:AX62)</f>
+        <v>9.3825949951300558E-2</v>
+      </c>
+      <c r="BD66" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE66" s="58">
+        <f>MIN(BE4:BE62)</f>
+        <v>9.3825949951300558E-2</v>
+      </c>
+      <c r="BK66" t="s">
+        <v>16</v>
+      </c>
+      <c r="BL66" s="58">
+        <f>MIN(BL4:BL62)</f>
+        <v>1.7524599807003938E-3</v>
+      </c>
     </row>
-    <row r="67" spans="5:43" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:64" x14ac:dyDescent="0.3">
       <c r="E67" t="s">
         <v>9</v>
       </c>
@@ -12708,14 +16297,6 @@
         <f>_xlfn.STDEV.P(AC4:AC62)</f>
         <v>3.1496284034042463</v>
       </c>
-      <c r="AE67" s="4"/>
-      <c r="AI67" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ67" s="1">
-        <f>_xlfn.STDEV.P(AJ4:AJ62)</f>
-        <v>3.3686352403804083</v>
-      </c>
       <c r="AL67" s="4"/>
       <c r="AP67" t="s">
         <v>9</v>
@@ -12724,8 +16305,32 @@
         <f>_xlfn.STDEV.P(AQ4:AQ62)</f>
         <v>2.8827384537731833</v>
       </c>
+      <c r="AS67" s="4"/>
+      <c r="AW67" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX67" s="1">
+        <f>_xlfn.STDEV.P(AX4:AX62)</f>
+        <v>2.8467808570286182</v>
+      </c>
+      <c r="AZ67" s="4"/>
+      <c r="BD67" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE67" s="1">
+        <f>_xlfn.STDEV.P(BE4:BE62)</f>
+        <v>2.8467808570286182</v>
+      </c>
+      <c r="BG67" s="4"/>
+      <c r="BK67" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL67" s="1">
+        <f>_xlfn.STDEV.P(BL4:BL62)</f>
+        <v>5.6776710937454293</v>
+      </c>
     </row>
-    <row r="68" spans="5:43" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:64" x14ac:dyDescent="0.3">
       <c r="E68" t="s">
         <v>8</v>
       </c>
@@ -12754,13 +16359,6 @@
         <f>_xlfn.VAR.P(AC4:AC62)</f>
         <v>9.9201590795307819</v>
       </c>
-      <c r="AI68" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ68" s="1">
-        <f>_xlfn.VAR.P(AJ4:AJ62)</f>
-        <v>11.347703382732771</v>
-      </c>
       <c r="AP68" t="s">
         <v>8</v>
       </c>
@@ -12768,9 +16366,30 @@
         <f>_xlfn.VAR.P(AQ4:AQ62)</f>
         <v>8.3101809928626036</v>
       </c>
+      <c r="AW68" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX68" s="1">
+        <f>_xlfn.VAR.P(AX4:AX62)</f>
+        <v>8.1041612479445941</v>
+      </c>
+      <c r="BD68" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE68" s="1">
+        <f>_xlfn.VAR.P(BE4:BE62)</f>
+        <v>8.1041612479445941</v>
+      </c>
+      <c r="BK68" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL68" s="1">
+        <f>_xlfn.VAR.P(BL4:BL62)</f>
+        <v>32.235949048752417</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AM2:AN2"/>
@@ -12783,8 +16402,14 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="R2:S2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BH2:BI2"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12793,10 +16418,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AFAF7B-95A2-D043-80AF-064D2FD49132}">
-  <dimension ref="A1:AQ68"/>
+  <dimension ref="A1:BL68"/>
   <sheetViews>
-    <sheetView topLeftCell="J32" zoomScale="56" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AS53" sqref="AS53"/>
+    <sheetView topLeftCell="AR1" zoomScale="44" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="BN43" sqref="BN43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -12810,7 +16435,7 @@
     <col min="23" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:64" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="33" t="s">
         <v>5</v>
       </c>
@@ -12829,82 +16454,127 @@
       <c r="AL1" s="33" t="s">
         <v>21</v>
       </c>
+      <c r="AS1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ1" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="BG1" s="33" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="91"/>
+      <c r="D2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="71"/>
+      <c r="E2" s="91"/>
       <c r="F2" s="46"/>
       <c r="I2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="J2" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="77"/>
-      <c r="L2" s="76" t="s">
+      <c r="K2" s="101"/>
+      <c r="L2" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="77"/>
+      <c r="M2" s="101"/>
       <c r="N2" s="49"/>
       <c r="Q2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="74" t="s">
+      <c r="R2" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="75"/>
-      <c r="T2" s="74" t="s">
+      <c r="S2" s="99"/>
+      <c r="T2" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="75"/>
+      <c r="U2" s="99"/>
       <c r="V2" s="41"/>
       <c r="X2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="66" t="s">
+      <c r="Y2" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="66" t="s">
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="67"/>
+      <c r="AB2" s="97"/>
       <c r="AC2" s="61"/>
-      <c r="AE2" s="78" t="s">
+      <c r="AE2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="AF2" s="79" t="s">
+      <c r="AF2" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="79" t="s">
+      <c r="AG2" s="95"/>
+      <c r="AH2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="81"/>
-      <c r="AL2" s="78" t="s">
+      <c r="AI2" s="95"/>
+      <c r="AJ2" s="67"/>
+      <c r="AL2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="AM2" s="79" t="s">
+      <c r="AM2" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="79" t="s">
+      <c r="AN2" s="95"/>
+      <c r="AO2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="81"/>
+      <c r="AP2" s="95"/>
+      <c r="AQ2" s="67"/>
+      <c r="AS2" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT2" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU2" s="87"/>
+      <c r="AV2" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW2" s="87"/>
+      <c r="AX2" s="73"/>
+      <c r="AZ2" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA2" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB2" s="85"/>
+      <c r="BC2" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD2" s="85"/>
+      <c r="BE2" s="79"/>
+      <c r="BG2" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH2" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI2" s="85"/>
+      <c r="BJ2" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK2" s="85"/>
+      <c r="BL2" s="79"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>17</v>
       </c>
@@ -12977,44 +16647,98 @@
       <c r="AC3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="AE3" s="82" t="s">
+      <c r="AE3" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="84" t="s">
+      <c r="AF3" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="AH3" s="83" t="s">
+      <c r="AH3" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="AI3" s="84" t="s">
+      <c r="AI3" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AJ3" s="85" t="s">
+      <c r="AJ3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="AL3" s="82" t="s">
+      <c r="AL3" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="AM3" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="84" t="s">
+      <c r="AM3" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="AO3" s="83" t="s">
+      <c r="AO3" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="AP3" s="84" t="s">
+      <c r="AP3" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AQ3" s="85" t="s">
+      <c r="AQ3" s="71" t="s">
         <v>2</v>
       </c>
+      <c r="AS3" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT3" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ3" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA3" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG3" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH3" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="83" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -13126,8 +16850,65 @@
         <f>SQRT((AM4-AO4)^2+(AN4-AP4)^2)</f>
         <v>2.0034179143663304</v>
       </c>
+      <c r="AS4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="57">
+        <v>30.066266285171899</v>
+      </c>
+      <c r="AU4" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="38">
+        <v>32</v>
+      </c>
+      <c r="AW4" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="7">
+        <f>SQRT((AT4-AV4)^2+(AU4-AW4)^2)</f>
+        <v>1.9337337148281009</v>
+      </c>
+      <c r="AZ4" s="5">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="57">
+        <v>30.066266285171899</v>
+      </c>
+      <c r="BB4" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="38">
+        <v>32</v>
+      </c>
+      <c r="BD4" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="7">
+        <f>SQRT((BA4-BC4)^2+(BB4-BD4)^2)</f>
+        <v>1.9337337148281009</v>
+      </c>
+      <c r="BG4" s="5">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="57">
+        <v>21.5304168159341</v>
+      </c>
+      <c r="BI4" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="38">
+        <v>32</v>
+      </c>
+      <c r="BK4" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="7">
+        <f>SQRT((BH4-BJ4)^2+(BI4-BK4)^2)</f>
+        <v>10.4695831840659</v>
+      </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -13239,8 +17020,65 @@
         <f t="shared" ref="AQ5:AQ62" si="2">SQRT((AM5-AO5)^2+(AN5-AP5)^2)</f>
         <v>0.75086199153970057</v>
       </c>
+      <c r="AS5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="57">
+        <v>29.249138008460299</v>
+      </c>
+      <c r="AU5" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="38">
+        <v>30</v>
+      </c>
+      <c r="AW5" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="7">
+        <f t="shared" ref="AX5:AX62" si="3">SQRT((AT5-AV5)^2+(AU5-AW5)^2)</f>
+        <v>0.75086199153970057</v>
+      </c>
+      <c r="AZ5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BA5" s="57">
+        <v>29.249138008460299</v>
+      </c>
+      <c r="BB5" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="38">
+        <v>30</v>
+      </c>
+      <c r="BD5" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="7">
+        <f t="shared" ref="BE5:BE62" si="4">SQRT((BA5-BC5)^2+(BB5-BD5)^2)</f>
+        <v>0.75086199153970057</v>
+      </c>
+      <c r="BG5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BH5" s="57">
+        <v>29.625314559028499</v>
+      </c>
+      <c r="BI5" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="38">
+        <v>30</v>
+      </c>
+      <c r="BK5" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="7">
+        <f t="shared" ref="BL5:BL62" si="5">SQRT((BH5-BJ5)^2+(BI5-BK5)^2)</f>
+        <v>0.37468544097150058</v>
+      </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -13352,8 +17190,65 @@
         <f t="shared" si="2"/>
         <v>2.0209984347070993</v>
       </c>
+      <c r="AS6" s="5">
+        <v>3</v>
+      </c>
+      <c r="AT6" s="57">
+        <v>30.020998434707099</v>
+      </c>
+      <c r="AU6" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="38">
+        <v>28</v>
+      </c>
+      <c r="AW6" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="7">
+        <f t="shared" si="3"/>
+        <v>2.0209984347070993</v>
+      </c>
+      <c r="AZ6" s="5">
+        <v>3</v>
+      </c>
+      <c r="BA6" s="57">
+        <v>30.020998434707099</v>
+      </c>
+      <c r="BB6" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="38">
+        <v>28</v>
+      </c>
+      <c r="BD6" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="7">
+        <f t="shared" si="4"/>
+        <v>2.0209984347070993</v>
+      </c>
+      <c r="BG6" s="5">
+        <v>3</v>
+      </c>
+      <c r="BH6" s="57">
+        <v>25.322239859001201</v>
+      </c>
+      <c r="BI6" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="38">
+        <v>28</v>
+      </c>
+      <c r="BK6" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="7">
+        <f t="shared" si="5"/>
+        <v>2.6777601409987994</v>
+      </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -13465,8 +17360,65 @@
         <f t="shared" si="2"/>
         <v>3.4589529846015985</v>
       </c>
+      <c r="AS7" s="5">
+        <v>4</v>
+      </c>
+      <c r="AT7" s="57">
+        <v>22.541047015398401</v>
+      </c>
+      <c r="AU7" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="38">
+        <v>26</v>
+      </c>
+      <c r="AW7" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="7">
+        <f t="shared" si="3"/>
+        <v>3.4589529846015985</v>
+      </c>
+      <c r="AZ7" s="5">
+        <v>4</v>
+      </c>
+      <c r="BA7" s="57">
+        <v>22.541047015398401</v>
+      </c>
+      <c r="BB7" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="38">
+        <v>26</v>
+      </c>
+      <c r="BD7" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="7">
+        <f t="shared" si="4"/>
+        <v>3.4589529846015985</v>
+      </c>
+      <c r="BG7" s="5">
+        <v>4</v>
+      </c>
+      <c r="BH7" s="57">
+        <v>22.1754981942277</v>
+      </c>
+      <c r="BI7" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="38">
+        <v>26</v>
+      </c>
+      <c r="BK7" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="7">
+        <f t="shared" si="5"/>
+        <v>3.8245018057723001</v>
+      </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -13578,8 +17530,65 @@
         <f t="shared" si="2"/>
         <v>2.7197337486393991</v>
       </c>
+      <c r="AS8" s="5">
+        <v>5</v>
+      </c>
+      <c r="AT8" s="57">
+        <v>21.280266251360601</v>
+      </c>
+      <c r="AU8" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="38">
+        <v>24</v>
+      </c>
+      <c r="AW8" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="7">
+        <f t="shared" si="3"/>
+        <v>2.7197337486393991</v>
+      </c>
+      <c r="AZ8" s="5">
+        <v>5</v>
+      </c>
+      <c r="BA8" s="57">
+        <v>21.280266251360601</v>
+      </c>
+      <c r="BB8" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="38">
+        <v>24</v>
+      </c>
+      <c r="BD8" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="7">
+        <f t="shared" si="4"/>
+        <v>2.7197337486393991</v>
+      </c>
+      <c r="BG8" s="5">
+        <v>5</v>
+      </c>
+      <c r="BH8" s="57">
+        <v>21.6899603077023</v>
+      </c>
+      <c r="BI8" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="38">
+        <v>24</v>
+      </c>
+      <c r="BK8" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="7">
+        <f t="shared" si="5"/>
+        <v>2.3100396922976998</v>
+      </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -13691,8 +17700,65 @@
         <f t="shared" si="2"/>
         <v>1.2072275277194997</v>
       </c>
+      <c r="AS9" s="5">
+        <v>6</v>
+      </c>
+      <c r="AT9" s="57">
+        <v>20.7927724722805</v>
+      </c>
+      <c r="AU9" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="38">
+        <v>22</v>
+      </c>
+      <c r="AW9" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="7">
+        <f t="shared" si="3"/>
+        <v>1.2072275277194997</v>
+      </c>
+      <c r="AZ9" s="5">
+        <v>6</v>
+      </c>
+      <c r="BA9" s="57">
+        <v>20.7927724722805</v>
+      </c>
+      <c r="BB9" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="38">
+        <v>22</v>
+      </c>
+      <c r="BD9" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="7">
+        <f t="shared" si="4"/>
+        <v>1.2072275277194997</v>
+      </c>
+      <c r="BG9" s="5">
+        <v>6</v>
+      </c>
+      <c r="BH9" s="57">
+        <v>20.7481362164187</v>
+      </c>
+      <c r="BI9" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="38">
+        <v>22</v>
+      </c>
+      <c r="BK9" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="7">
+        <f t="shared" si="5"/>
+        <v>1.2518637835812996</v>
+      </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -13804,8 +17870,65 @@
         <f t="shared" si="2"/>
         <v>0.47243988598659925</v>
       </c>
+      <c r="AS10" s="5">
+        <v>7</v>
+      </c>
+      <c r="AT10" s="57">
+        <v>20.472439885986599</v>
+      </c>
+      <c r="AU10" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="38">
+        <v>20</v>
+      </c>
+      <c r="AW10" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="7">
+        <f t="shared" si="3"/>
+        <v>0.47243988598659925</v>
+      </c>
+      <c r="AZ10" s="5">
+        <v>7</v>
+      </c>
+      <c r="BA10" s="57">
+        <v>20.472439885986599</v>
+      </c>
+      <c r="BB10" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="38">
+        <v>20</v>
+      </c>
+      <c r="BD10" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="7">
+        <f t="shared" si="4"/>
+        <v>0.47243988598659925</v>
+      </c>
+      <c r="BG10" s="5">
+        <v>7</v>
+      </c>
+      <c r="BH10" s="57">
+        <v>20.843074945372202</v>
+      </c>
+      <c r="BI10" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="38">
+        <v>20</v>
+      </c>
+      <c r="BK10" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="7">
+        <f t="shared" si="5"/>
+        <v>0.84307494537220151</v>
+      </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -13917,8 +18040,65 @@
         <f t="shared" si="2"/>
         <v>2.5623909231915007</v>
       </c>
+      <c r="AS11" s="5">
+        <v>8</v>
+      </c>
+      <c r="AT11" s="57">
+        <v>20.562390923191501</v>
+      </c>
+      <c r="AU11" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="38">
+        <v>18</v>
+      </c>
+      <c r="AW11" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="7">
+        <f t="shared" si="3"/>
+        <v>2.5623909231915007</v>
+      </c>
+      <c r="AZ11" s="5">
+        <v>8</v>
+      </c>
+      <c r="BA11" s="57">
+        <v>20.562390923191501</v>
+      </c>
+      <c r="BB11" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="38">
+        <v>18</v>
+      </c>
+      <c r="BD11" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="7">
+        <f t="shared" si="4"/>
+        <v>2.5623909231915007</v>
+      </c>
+      <c r="BG11" s="5">
+        <v>8</v>
+      </c>
+      <c r="BH11" s="57">
+        <v>19.6645020324213</v>
+      </c>
+      <c r="BI11" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="38">
+        <v>18</v>
+      </c>
+      <c r="BK11" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="7">
+        <f t="shared" si="5"/>
+        <v>1.6645020324213</v>
+      </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -14030,8 +18210,65 @@
         <f t="shared" si="2"/>
         <v>3.7425895315138007</v>
       </c>
+      <c r="AS12" s="5">
+        <v>9</v>
+      </c>
+      <c r="AT12" s="57">
+        <v>12.257410468486199</v>
+      </c>
+      <c r="AU12" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="38">
+        <v>16</v>
+      </c>
+      <c r="AW12" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="7">
+        <f t="shared" si="3"/>
+        <v>3.7425895315138007</v>
+      </c>
+      <c r="AZ12" s="5">
+        <v>9</v>
+      </c>
+      <c r="BA12" s="57">
+        <v>12.257410468486199</v>
+      </c>
+      <c r="BB12" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="38">
+        <v>16</v>
+      </c>
+      <c r="BD12" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="7">
+        <f t="shared" si="4"/>
+        <v>3.7425895315138007</v>
+      </c>
+      <c r="BG12" s="5">
+        <v>9</v>
+      </c>
+      <c r="BH12" s="57">
+        <v>18.7009819080914</v>
+      </c>
+      <c r="BI12" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="38">
+        <v>16</v>
+      </c>
+      <c r="BK12" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="7">
+        <f t="shared" si="5"/>
+        <v>2.7009819080913999</v>
+      </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -14143,8 +18380,65 @@
         <f t="shared" si="2"/>
         <v>4.2874411250251505</v>
       </c>
+      <c r="AS13" s="5">
+        <v>10</v>
+      </c>
+      <c r="AT13" s="57">
+        <v>9.7125588749748495</v>
+      </c>
+      <c r="AU13" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="38">
+        <v>14</v>
+      </c>
+      <c r="AW13" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="7">
+        <f t="shared" si="3"/>
+        <v>4.2874411250251505</v>
+      </c>
+      <c r="AZ13" s="5">
+        <v>10</v>
+      </c>
+      <c r="BA13" s="57">
+        <v>9.7125588749748495</v>
+      </c>
+      <c r="BB13" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="38">
+        <v>14</v>
+      </c>
+      <c r="BD13" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="7">
+        <f t="shared" si="4"/>
+        <v>4.2874411250251505</v>
+      </c>
+      <c r="BG13" s="5">
+        <v>10</v>
+      </c>
+      <c r="BH13" s="57">
+        <v>13.214388762367999</v>
+      </c>
+      <c r="BI13" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="38">
+        <v>14</v>
+      </c>
+      <c r="BK13" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="7">
+        <f t="shared" si="5"/>
+        <v>0.78561123763200058</v>
+      </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -14256,8 +18550,65 @@
         <f t="shared" si="2"/>
         <v>2.7317636587306797</v>
       </c>
+      <c r="AS14" s="5">
+        <v>11</v>
+      </c>
+      <c r="AT14" s="57">
+        <v>9.2682363412693203</v>
+      </c>
+      <c r="AU14" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="38">
+        <v>12</v>
+      </c>
+      <c r="AW14" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="7">
+        <f t="shared" si="3"/>
+        <v>2.7317636587306797</v>
+      </c>
+      <c r="AZ14" s="5">
+        <v>11</v>
+      </c>
+      <c r="BA14" s="57">
+        <v>9.2682363412693203</v>
+      </c>
+      <c r="BB14" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="38">
+        <v>12</v>
+      </c>
+      <c r="BD14" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="7">
+        <f t="shared" si="4"/>
+        <v>2.7317636587306797</v>
+      </c>
+      <c r="BG14" s="5">
+        <v>11</v>
+      </c>
+      <c r="BH14" s="57">
+        <v>10.0561421762708</v>
+      </c>
+      <c r="BI14" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="38">
+        <v>12</v>
+      </c>
+      <c r="BK14" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="7">
+        <f t="shared" si="5"/>
+        <v>1.9438578237291999</v>
+      </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -14369,8 +18720,65 @@
         <f t="shared" si="2"/>
         <v>0.7511083127314695</v>
       </c>
+      <c r="AS15" s="5">
+        <v>12</v>
+      </c>
+      <c r="AT15" s="57">
+        <v>9.2488916872685305</v>
+      </c>
+      <c r="AU15" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="38">
+        <v>10</v>
+      </c>
+      <c r="AW15" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="7">
+        <f t="shared" si="3"/>
+        <v>0.7511083127314695</v>
+      </c>
+      <c r="AZ15" s="5">
+        <v>12</v>
+      </c>
+      <c r="BA15" s="57">
+        <v>9.2488916872685305</v>
+      </c>
+      <c r="BB15" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="38">
+        <v>10</v>
+      </c>
+      <c r="BD15" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="7">
+        <f t="shared" si="4"/>
+        <v>0.7511083127314695</v>
+      </c>
+      <c r="BG15" s="5">
+        <v>12</v>
+      </c>
+      <c r="BH15" s="57">
+        <v>9.2996314503569302</v>
+      </c>
+      <c r="BI15" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="38">
+        <v>10</v>
+      </c>
+      <c r="BK15" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="7">
+        <f t="shared" si="5"/>
+        <v>0.70036854964306983</v>
+      </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -14482,8 +18890,65 @@
         <f t="shared" si="2"/>
         <v>1.2088240994794885</v>
       </c>
+      <c r="AS16" s="5">
+        <v>13</v>
+      </c>
+      <c r="AT16" s="57">
+        <v>9.2285843564901597</v>
+      </c>
+      <c r="AU16" s="57">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="38">
+        <v>8</v>
+      </c>
+      <c r="AW16" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="7">
+        <f t="shared" si="3"/>
+        <v>1.2285843564901597</v>
+      </c>
+      <c r="AZ16" s="5">
+        <v>13</v>
+      </c>
+      <c r="BA16" s="57">
+        <v>9.2285843564901597</v>
+      </c>
+      <c r="BB16" s="57">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="38">
+        <v>8</v>
+      </c>
+      <c r="BD16" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="7">
+        <f t="shared" si="4"/>
+        <v>1.2285843564901597</v>
+      </c>
+      <c r="BG16" s="5">
+        <v>13</v>
+      </c>
+      <c r="BH16" s="57">
+        <v>9.3431439079295107</v>
+      </c>
+      <c r="BI16" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="38">
+        <v>8</v>
+      </c>
+      <c r="BK16" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="7">
+        <f t="shared" si="5"/>
+        <v>1.3431439079295107</v>
+      </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -14595,8 +19060,65 @@
         <f t="shared" si="2"/>
         <v>3.0858896416368542</v>
       </c>
+      <c r="AS17" s="5">
+        <v>14</v>
+      </c>
+      <c r="AT17" s="57">
+        <v>9.0711973279818405</v>
+      </c>
+      <c r="AU17" s="57">
+        <v>-0.139137488090741</v>
+      </c>
+      <c r="AV17" s="38">
+        <v>6</v>
+      </c>
+      <c r="AW17" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="7">
+        <f t="shared" si="3"/>
+        <v>3.0743474540128024</v>
+      </c>
+      <c r="AZ17" s="5">
+        <v>14</v>
+      </c>
+      <c r="BA17" s="57">
+        <v>9.0711973279818405</v>
+      </c>
+      <c r="BB17" s="57">
+        <v>-0.139137488090741</v>
+      </c>
+      <c r="BC17" s="38">
+        <v>6</v>
+      </c>
+      <c r="BD17" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="7">
+        <f t="shared" si="4"/>
+        <v>3.0743474540128024</v>
+      </c>
+      <c r="BG17" s="5">
+        <v>14</v>
+      </c>
+      <c r="BH17" s="57">
+        <v>9.3217081338126206</v>
+      </c>
+      <c r="BI17" s="57">
+        <v>-6.98395442337095E-3</v>
+      </c>
+      <c r="BJ17" s="38">
+        <v>6</v>
+      </c>
+      <c r="BK17" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL17" s="7">
+        <f t="shared" si="5"/>
+        <v>3.321715475752899</v>
+      </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -14708,8 +19230,65 @@
         <f t="shared" si="2"/>
         <v>5.9794800756734929</v>
       </c>
+      <c r="AS18" s="5">
+        <v>15</v>
+      </c>
+      <c r="AT18" s="57">
+        <v>3.61802751957423</v>
+      </c>
+      <c r="AU18" s="57">
+        <v>-6.0298565033544298</v>
+      </c>
+      <c r="AV18" s="38">
+        <v>4</v>
+      </c>
+      <c r="AW18" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="7">
+        <f t="shared" si="3"/>
+        <v>6.0419427692463561</v>
+      </c>
+      <c r="AZ18" s="5">
+        <v>15</v>
+      </c>
+      <c r="BA18" s="57">
+        <v>3.61802751957423</v>
+      </c>
+      <c r="BB18" s="57">
+        <v>-6.0298565033544298</v>
+      </c>
+      <c r="BC18" s="38">
+        <v>4</v>
+      </c>
+      <c r="BD18" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="7">
+        <f t="shared" si="4"/>
+        <v>6.0419427692463561</v>
+      </c>
+      <c r="BG18" s="5">
+        <v>15</v>
+      </c>
+      <c r="BH18" s="57">
+        <v>12.9160134357111</v>
+      </c>
+      <c r="BI18" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="38">
+        <v>4</v>
+      </c>
+      <c r="BK18" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL18" s="7">
+        <f t="shared" si="5"/>
+        <v>8.9160134357111005</v>
+      </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -14821,8 +19400,65 @@
         <f t="shared" si="2"/>
         <v>4.7896834673727033</v>
       </c>
+      <c r="AS19" s="5">
+        <v>16</v>
+      </c>
+      <c r="AT19" s="57">
+        <v>5.9327163564204701</v>
+      </c>
+      <c r="AU19" s="57">
+        <v>-2.73400983494323</v>
+      </c>
+      <c r="AV19" s="38">
+        <v>2</v>
+      </c>
+      <c r="AW19" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="7">
+        <f t="shared" si="3"/>
+        <v>4.7896834673727033</v>
+      </c>
+      <c r="AZ19" s="5">
+        <v>16</v>
+      </c>
+      <c r="BA19" s="57">
+        <v>5.9327163564204701</v>
+      </c>
+      <c r="BB19" s="57">
+        <v>-2.73400983494323</v>
+      </c>
+      <c r="BC19" s="38">
+        <v>2</v>
+      </c>
+      <c r="BD19" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="7">
+        <f t="shared" si="4"/>
+        <v>4.7896834673727033</v>
+      </c>
+      <c r="BG19" s="5">
+        <v>16</v>
+      </c>
+      <c r="BH19" s="57">
+        <v>11.0208372432182</v>
+      </c>
+      <c r="BI19" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="38">
+        <v>2</v>
+      </c>
+      <c r="BK19" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL19" s="7">
+        <f t="shared" si="5"/>
+        <v>9.0208372432181996</v>
+      </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -14934,8 +19570,65 @@
         <f t="shared" si="2"/>
         <v>9.4660582347079103</v>
       </c>
+      <c r="AS20" s="5">
+        <v>17</v>
+      </c>
+      <c r="AT20" s="57">
+        <v>9.4359571939304701</v>
+      </c>
+      <c r="AU20" s="57">
+        <v>-0.75430122444103098</v>
+      </c>
+      <c r="AV20" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="39">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="7">
+        <f t="shared" si="3"/>
+        <v>9.4660582347079103</v>
+      </c>
+      <c r="AZ20" s="5">
+        <v>17</v>
+      </c>
+      <c r="BA20" s="57">
+        <v>9.4359571939304701</v>
+      </c>
+      <c r="BB20" s="57">
+        <v>-0.75430122444103098</v>
+      </c>
+      <c r="BC20" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="39">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="7">
+        <f t="shared" si="4"/>
+        <v>9.4660582347079103</v>
+      </c>
+      <c r="BG20" s="5">
+        <v>17</v>
+      </c>
+      <c r="BH20" s="57">
+        <v>14.4142202850543</v>
+      </c>
+      <c r="BI20" s="57">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="39">
+        <v>0</v>
+      </c>
+      <c r="BL20" s="7">
+        <f t="shared" si="5"/>
+        <v>14.4142202850543</v>
+      </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -15047,8 +19740,65 @@
         <f t="shared" si="2"/>
         <v>8.6110612564954199</v>
       </c>
+      <c r="AS21" s="5">
+        <v>18</v>
+      </c>
+      <c r="AT21" s="57">
+        <v>8.4847024767066408</v>
+      </c>
+      <c r="AU21" s="57">
+        <v>-0.46187623677205503</v>
+      </c>
+      <c r="AV21" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="39">
+        <v>2</v>
+      </c>
+      <c r="AX21" s="7">
+        <f t="shared" si="3"/>
+        <v>8.8346483078510119</v>
+      </c>
+      <c r="AZ21" s="5">
+        <v>18</v>
+      </c>
+      <c r="BA21" s="57">
+        <v>8.4847024767066408</v>
+      </c>
+      <c r="BB21" s="57">
+        <v>-0.46187623677205503</v>
+      </c>
+      <c r="BC21" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="39">
+        <v>2</v>
+      </c>
+      <c r="BE21" s="7">
+        <f t="shared" si="4"/>
+        <v>8.8346483078510119</v>
+      </c>
+      <c r="BG21" s="5">
+        <v>18</v>
+      </c>
+      <c r="BH21" s="57">
+        <v>9.4280911759942292</v>
+      </c>
+      <c r="BI21" s="57">
+        <v>1.71625801160235</v>
+      </c>
+      <c r="BJ21" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="39">
+        <v>2</v>
+      </c>
+      <c r="BL21" s="7">
+        <f t="shared" si="5"/>
+        <v>9.43235987114784</v>
+      </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -15160,8 +19910,65 @@
         <f t="shared" si="2"/>
         <v>20.533333837832608</v>
       </c>
+      <c r="AS22" s="5">
+        <v>19</v>
+      </c>
+      <c r="AT22" s="57">
+        <v>-0.20117593515770099</v>
+      </c>
+      <c r="AU22" s="57">
+        <v>26.258539554393298</v>
+      </c>
+      <c r="AV22" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="39">
+        <v>4</v>
+      </c>
+      <c r="AX22" s="7">
+        <f t="shared" si="3"/>
+        <v>22.259448664586856</v>
+      </c>
+      <c r="AZ22" s="5">
+        <v>19</v>
+      </c>
+      <c r="BA22" s="57">
+        <v>-0.20117593515770099</v>
+      </c>
+      <c r="BB22" s="57">
+        <v>26.258539554393298</v>
+      </c>
+      <c r="BC22" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="39">
+        <v>4</v>
+      </c>
+      <c r="BE22" s="7">
+        <f t="shared" si="4"/>
+        <v>22.259448664586856</v>
+      </c>
+      <c r="BG22" s="5">
+        <v>19</v>
+      </c>
+      <c r="BH22" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="57">
+        <v>23.879336646367499</v>
+      </c>
+      <c r="BJ22" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK22" s="39">
+        <v>4</v>
+      </c>
+      <c r="BL22" s="7">
+        <f t="shared" si="5"/>
+        <v>19.879336646367499</v>
+      </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -15273,8 +20080,65 @@
         <f t="shared" si="2"/>
         <v>22.894895372825101</v>
       </c>
+      <c r="AS23" s="5">
+        <v>20</v>
+      </c>
+      <c r="AT23" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="57">
+        <v>28.894895372825101</v>
+      </c>
+      <c r="AV23" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="39">
+        <v>6</v>
+      </c>
+      <c r="AX23" s="7">
+        <f t="shared" si="3"/>
+        <v>22.894895372825101</v>
+      </c>
+      <c r="AZ23" s="5">
+        <v>20</v>
+      </c>
+      <c r="BA23" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="57">
+        <v>28.894895372825101</v>
+      </c>
+      <c r="BC23" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="39">
+        <v>6</v>
+      </c>
+      <c r="BE23" s="7">
+        <f t="shared" si="4"/>
+        <v>22.894895372825101</v>
+      </c>
+      <c r="BG23" s="5">
+        <v>20</v>
+      </c>
+      <c r="BH23" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI23" s="57">
+        <v>29.040643508578899</v>
+      </c>
+      <c r="BJ23" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK23" s="39">
+        <v>6</v>
+      </c>
+      <c r="BL23" s="7">
+        <f t="shared" si="5"/>
+        <v>23.040643508578899</v>
+      </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -15386,8 +20250,65 @@
         <f t="shared" si="2"/>
         <v>16.084682675239499</v>
       </c>
+      <c r="AS24" s="5">
+        <v>21</v>
+      </c>
+      <c r="AT24" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="57">
+        <v>24.084682675239499</v>
+      </c>
+      <c r="AV24" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="39">
+        <v>8</v>
+      </c>
+      <c r="AX24" s="7">
+        <f t="shared" si="3"/>
+        <v>16.084682675239499</v>
+      </c>
+      <c r="AZ24" s="5">
+        <v>21</v>
+      </c>
+      <c r="BA24" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="57">
+        <v>24.084682675239499</v>
+      </c>
+      <c r="BC24" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="39">
+        <v>8</v>
+      </c>
+      <c r="BE24" s="7">
+        <f t="shared" si="4"/>
+        <v>16.084682675239499</v>
+      </c>
+      <c r="BG24" s="5">
+        <v>21</v>
+      </c>
+      <c r="BH24" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI24" s="57">
+        <v>31.856466822083998</v>
+      </c>
+      <c r="BJ24" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK24" s="39">
+        <v>8</v>
+      </c>
+      <c r="BL24" s="7">
+        <f t="shared" si="5"/>
+        <v>23.856466822083998</v>
+      </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -15499,8 +20420,65 @@
         <f t="shared" si="2"/>
         <v>16.626315477161199</v>
       </c>
+      <c r="AS25" s="5">
+        <v>22</v>
+      </c>
+      <c r="AT25" s="57">
+        <v>-0.13615040772313</v>
+      </c>
+      <c r="AU25" s="57">
+        <v>22.835601493711899</v>
+      </c>
+      <c r="AV25" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="39">
+        <v>10</v>
+      </c>
+      <c r="AX25" s="7">
+        <f t="shared" si="3"/>
+        <v>12.836323563968863</v>
+      </c>
+      <c r="AZ25" s="5">
+        <v>22</v>
+      </c>
+      <c r="BA25" s="57">
+        <v>-0.13615040772313</v>
+      </c>
+      <c r="BB25" s="57">
+        <v>22.835601493711899</v>
+      </c>
+      <c r="BC25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="39">
+        <v>10</v>
+      </c>
+      <c r="BE25" s="7">
+        <f t="shared" si="4"/>
+        <v>12.836323563968863</v>
+      </c>
+      <c r="BG25" s="5">
+        <v>22</v>
+      </c>
+      <c r="BH25" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI25" s="57">
+        <v>29.9921309721942</v>
+      </c>
+      <c r="BJ25" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK25" s="39">
+        <v>10</v>
+      </c>
+      <c r="BL25" s="7">
+        <f t="shared" si="5"/>
+        <v>19.9921309721942</v>
+      </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -15612,8 +20590,65 @@
         <f t="shared" si="2"/>
         <v>7.2998986556043874</v>
       </c>
+      <c r="AS26" s="5">
+        <v>23</v>
+      </c>
+      <c r="AT26" s="57">
+        <v>-0.203395864863605</v>
+      </c>
+      <c r="AU26" s="57">
+        <v>19.297064512819599</v>
+      </c>
+      <c r="AV26" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="39">
+        <v>12</v>
+      </c>
+      <c r="AX26" s="7">
+        <f t="shared" si="3"/>
+        <v>7.2998986556043874</v>
+      </c>
+      <c r="AZ26" s="5">
+        <v>23</v>
+      </c>
+      <c r="BA26" s="57">
+        <v>-0.203395864863605</v>
+      </c>
+      <c r="BB26" s="57">
+        <v>19.297064512819599</v>
+      </c>
+      <c r="BC26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="39">
+        <v>12</v>
+      </c>
+      <c r="BE26" s="7">
+        <f t="shared" si="4"/>
+        <v>7.2998986556043874</v>
+      </c>
+      <c r="BG26" s="5">
+        <v>23</v>
+      </c>
+      <c r="BH26" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI26" s="57">
+        <v>24.9154664994449</v>
+      </c>
+      <c r="BJ26" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="39">
+        <v>12</v>
+      </c>
+      <c r="BL26" s="7">
+        <f t="shared" si="5"/>
+        <v>12.9154664994449</v>
+      </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -15725,8 +20760,65 @@
         <f t="shared" si="2"/>
         <v>10.075732532434198</v>
       </c>
+      <c r="AS27" s="5">
+        <v>24</v>
+      </c>
+      <c r="AT27" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="57">
+        <v>24.075732532434198</v>
+      </c>
+      <c r="AV27" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="39">
+        <v>14</v>
+      </c>
+      <c r="AX27" s="7">
+        <f t="shared" si="3"/>
+        <v>10.075732532434198</v>
+      </c>
+      <c r="AZ27" s="5">
+        <v>24</v>
+      </c>
+      <c r="BA27" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="57">
+        <v>24.075732532434198</v>
+      </c>
+      <c r="BC27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="39">
+        <v>14</v>
+      </c>
+      <c r="BE27" s="7">
+        <f t="shared" si="4"/>
+        <v>10.075732532434198</v>
+      </c>
+      <c r="BG27" s="5">
+        <v>24</v>
+      </c>
+      <c r="BH27" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI27" s="57">
+        <v>24.723852359108299</v>
+      </c>
+      <c r="BJ27" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK27" s="39">
+        <v>14</v>
+      </c>
+      <c r="BL27" s="7">
+        <f t="shared" si="5"/>
+        <v>10.723852359108299</v>
+      </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -15838,8 +20930,65 @@
         <f t="shared" si="2"/>
         <v>11.0306440893321</v>
       </c>
+      <c r="AS28" s="5">
+        <v>25</v>
+      </c>
+      <c r="AT28" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="57">
+        <v>27.0306440893321</v>
+      </c>
+      <c r="AV28" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="39">
+        <v>16</v>
+      </c>
+      <c r="AX28" s="7">
+        <f t="shared" si="3"/>
+        <v>11.0306440893321</v>
+      </c>
+      <c r="AZ28" s="5">
+        <v>25</v>
+      </c>
+      <c r="BA28" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="57">
+        <v>27.0306440893321</v>
+      </c>
+      <c r="BC28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="39">
+        <v>16</v>
+      </c>
+      <c r="BE28" s="7">
+        <f t="shared" si="4"/>
+        <v>11.0306440893321</v>
+      </c>
+      <c r="BG28" s="5">
+        <v>25</v>
+      </c>
+      <c r="BH28" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI28" s="57">
+        <v>26.924900300469599</v>
+      </c>
+      <c r="BJ28" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK28" s="39">
+        <v>16</v>
+      </c>
+      <c r="BL28" s="7">
+        <f t="shared" si="5"/>
+        <v>10.924900300469599</v>
+      </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -15951,8 +21100,65 @@
         <f t="shared" si="2"/>
         <v>6.7729863275869988</v>
       </c>
+      <c r="AS29" s="5">
+        <v>26</v>
+      </c>
+      <c r="AT29" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="57">
+        <v>24.772986327586999</v>
+      </c>
+      <c r="AV29" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="39">
+        <v>18</v>
+      </c>
+      <c r="AX29" s="7">
+        <f t="shared" si="3"/>
+        <v>6.7729863275869988</v>
+      </c>
+      <c r="AZ29" s="5">
+        <v>26</v>
+      </c>
+      <c r="BA29" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="57">
+        <v>24.772986327586999</v>
+      </c>
+      <c r="BC29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="39">
+        <v>18</v>
+      </c>
+      <c r="BE29" s="7">
+        <f t="shared" si="4"/>
+        <v>6.7729863275869988</v>
+      </c>
+      <c r="BG29" s="5">
+        <v>26</v>
+      </c>
+      <c r="BH29" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI29" s="57">
+        <v>27.0306440893321</v>
+      </c>
+      <c r="BJ29" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK29" s="39">
+        <v>18</v>
+      </c>
+      <c r="BL29" s="7">
+        <f t="shared" si="5"/>
+        <v>9.0306440893320996</v>
+      </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -16064,8 +21270,65 @@
         <f t="shared" si="2"/>
         <v>3.3148700469787009</v>
       </c>
+      <c r="AS30" s="5">
+        <v>27</v>
+      </c>
+      <c r="AT30" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="57">
+        <v>23.314870046978701</v>
+      </c>
+      <c r="AV30" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="39">
+        <v>20</v>
+      </c>
+      <c r="AX30" s="7">
+        <f t="shared" si="3"/>
+        <v>3.3148700469787009</v>
+      </c>
+      <c r="AZ30" s="5">
+        <v>27</v>
+      </c>
+      <c r="BA30" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="57">
+        <v>23.314870046978701</v>
+      </c>
+      <c r="BC30" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD30" s="39">
+        <v>20</v>
+      </c>
+      <c r="BE30" s="7">
+        <f t="shared" si="4"/>
+        <v>3.3148700469787009</v>
+      </c>
+      <c r="BG30" s="5">
+        <v>27</v>
+      </c>
+      <c r="BH30" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI30" s="57">
+        <v>23.672671724717102</v>
+      </c>
+      <c r="BJ30" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK30" s="39">
+        <v>20</v>
+      </c>
+      <c r="BL30" s="7">
+        <f t="shared" si="5"/>
+        <v>3.6726717247171017</v>
+      </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -16177,8 +21440,65 @@
         <f t="shared" si="2"/>
         <v>0.82756873186560043</v>
       </c>
+      <c r="AS31" s="5">
+        <v>28</v>
+      </c>
+      <c r="AT31" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="57">
+        <v>22.8275687318656</v>
+      </c>
+      <c r="AV31" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="39">
+        <v>22</v>
+      </c>
+      <c r="AX31" s="7">
+        <f t="shared" si="3"/>
+        <v>0.82756873186560043</v>
+      </c>
+      <c r="AZ31" s="5">
+        <v>28</v>
+      </c>
+      <c r="BA31" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="57">
+        <v>22.8275687318656</v>
+      </c>
+      <c r="BC31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD31" s="39">
+        <v>22</v>
+      </c>
+      <c r="BE31" s="7">
+        <f t="shared" si="4"/>
+        <v>0.82756873186560043</v>
+      </c>
+      <c r="BG31" s="5">
+        <v>28</v>
+      </c>
+      <c r="BH31" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI31" s="57">
+        <v>23.081151235928999</v>
+      </c>
+      <c r="BJ31" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK31" s="39">
+        <v>22</v>
+      </c>
+      <c r="BL31" s="7">
+        <f t="shared" si="5"/>
+        <v>1.0811512359289992</v>
+      </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -16290,8 +21610,65 @@
         <f t="shared" si="2"/>
         <v>0.4707333576456989</v>
       </c>
+      <c r="AS32" s="5">
+        <v>29</v>
+      </c>
+      <c r="AT32" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="57">
+        <v>23.529266642354301</v>
+      </c>
+      <c r="AV32" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="39">
+        <v>24</v>
+      </c>
+      <c r="AX32" s="7">
+        <f t="shared" si="3"/>
+        <v>0.4707333576456989</v>
+      </c>
+      <c r="AZ32" s="5">
+        <v>29</v>
+      </c>
+      <c r="BA32" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB32" s="57">
+        <v>23.529266642354301</v>
+      </c>
+      <c r="BC32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD32" s="39">
+        <v>24</v>
+      </c>
+      <c r="BE32" s="7">
+        <f t="shared" si="4"/>
+        <v>0.4707333576456989</v>
+      </c>
+      <c r="BG32" s="5">
+        <v>29</v>
+      </c>
+      <c r="BH32" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI32" s="57">
+        <v>22.818076161489898</v>
+      </c>
+      <c r="BJ32" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK32" s="39">
+        <v>24</v>
+      </c>
+      <c r="BL32" s="7">
+        <f t="shared" si="5"/>
+        <v>1.1819238385101016</v>
+      </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>30</v>
       </c>
@@ -16403,8 +21780,65 @@
         <f t="shared" si="2"/>
         <v>3.033431358971999</v>
       </c>
+      <c r="AS33" s="5">
+        <v>30</v>
+      </c>
+      <c r="AT33" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="57">
+        <v>29.033431358971999</v>
+      </c>
+      <c r="AV33" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="39">
+        <v>26</v>
+      </c>
+      <c r="AX33" s="7">
+        <f t="shared" si="3"/>
+        <v>3.033431358971999</v>
+      </c>
+      <c r="AZ33" s="5">
+        <v>30</v>
+      </c>
+      <c r="BA33" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB33" s="57">
+        <v>29.033431358971999</v>
+      </c>
+      <c r="BC33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD33" s="39">
+        <v>26</v>
+      </c>
+      <c r="BE33" s="7">
+        <f t="shared" si="4"/>
+        <v>3.033431358971999</v>
+      </c>
+      <c r="BG33" s="5">
+        <v>30</v>
+      </c>
+      <c r="BH33" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI33" s="57">
+        <v>28.489071598819599</v>
+      </c>
+      <c r="BJ33" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK33" s="39">
+        <v>26</v>
+      </c>
+      <c r="BL33" s="7">
+        <f t="shared" si="5"/>
+        <v>2.4890715988195993</v>
+      </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>31</v>
       </c>
@@ -16516,8 +21950,65 @@
         <f t="shared" si="2"/>
         <v>2.2409107737180989</v>
       </c>
+      <c r="AS34" s="5">
+        <v>31</v>
+      </c>
+      <c r="AT34" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="57">
+        <v>30.240910773718099</v>
+      </c>
+      <c r="AV34" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="39">
+        <v>28</v>
+      </c>
+      <c r="AX34" s="7">
+        <f t="shared" si="3"/>
+        <v>2.2409107737180989</v>
+      </c>
+      <c r="AZ34" s="5">
+        <v>31</v>
+      </c>
+      <c r="BA34" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB34" s="57">
+        <v>30.240910773718099</v>
+      </c>
+      <c r="BC34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD34" s="39">
+        <v>28</v>
+      </c>
+      <c r="BE34" s="7">
+        <f t="shared" si="4"/>
+        <v>2.2409107737180989</v>
+      </c>
+      <c r="BG34" s="5">
+        <v>31</v>
+      </c>
+      <c r="BH34" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI34" s="57">
+        <v>29.911464045142701</v>
+      </c>
+      <c r="BJ34" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK34" s="39">
+        <v>28</v>
+      </c>
+      <c r="BL34" s="7">
+        <f t="shared" si="5"/>
+        <v>1.9114640451427007</v>
+      </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>32</v>
       </c>
@@ -16629,8 +22120,65 @@
         <f t="shared" si="2"/>
         <v>3.7068253366598469E-2</v>
       </c>
+      <c r="AS35" s="5">
+        <v>32</v>
+      </c>
+      <c r="AT35" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="57">
+        <v>30.037068253366598</v>
+      </c>
+      <c r="AV35" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="39">
+        <v>30</v>
+      </c>
+      <c r="AX35" s="7">
+        <f t="shared" si="3"/>
+        <v>3.7068253366598469E-2</v>
+      </c>
+      <c r="AZ35" s="5">
+        <v>32</v>
+      </c>
+      <c r="BA35" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB35" s="57">
+        <v>30.037068253366598</v>
+      </c>
+      <c r="BC35" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD35" s="39">
+        <v>30</v>
+      </c>
+      <c r="BE35" s="7">
+        <f t="shared" si="4"/>
+        <v>3.7068253366598469E-2</v>
+      </c>
+      <c r="BG35" s="5">
+        <v>32</v>
+      </c>
+      <c r="BH35" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI35" s="57">
+        <v>30.4986558170759</v>
+      </c>
+      <c r="BJ35" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK35" s="39">
+        <v>30</v>
+      </c>
+      <c r="BL35" s="7">
+        <f t="shared" si="5"/>
+        <v>0.49865581707589968</v>
+      </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>33</v>
       </c>
@@ -16742,8 +22290,65 @@
         <f t="shared" si="2"/>
         <v>1.6885195429801989</v>
       </c>
+      <c r="AS36" s="5">
+        <v>33</v>
+      </c>
+      <c r="AT36" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="57">
+        <v>30.311480457019801</v>
+      </c>
+      <c r="AV36" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="39">
+        <v>32</v>
+      </c>
+      <c r="AX36" s="7">
+        <f t="shared" si="3"/>
+        <v>1.6885195429801989</v>
+      </c>
+      <c r="AZ36" s="5">
+        <v>33</v>
+      </c>
+      <c r="BA36" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="57">
+        <v>30.311480457019801</v>
+      </c>
+      <c r="BC36" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD36" s="39">
+        <v>32</v>
+      </c>
+      <c r="BE36" s="7">
+        <f t="shared" si="4"/>
+        <v>1.6885195429801989</v>
+      </c>
+      <c r="BG36" s="5">
+        <v>33</v>
+      </c>
+      <c r="BH36" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI36" s="57">
+        <v>22.6</v>
+      </c>
+      <c r="BJ36" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK36" s="39">
+        <v>32</v>
+      </c>
+      <c r="BL36" s="7">
+        <f t="shared" si="5"/>
+        <v>9.3999999999999986</v>
+      </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -16855,8 +22460,65 @@
         <f t="shared" si="2"/>
         <v>3.7947006382179005</v>
       </c>
+      <c r="AS37" s="5">
+        <v>34</v>
+      </c>
+      <c r="AT37" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU37" s="57">
+        <v>30.2052993617821</v>
+      </c>
+      <c r="AV37" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW37" s="39">
+        <v>34</v>
+      </c>
+      <c r="AX37" s="7">
+        <f t="shared" si="3"/>
+        <v>3.7947006382179005</v>
+      </c>
+      <c r="AZ37" s="5">
+        <v>34</v>
+      </c>
+      <c r="BA37" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB37" s="57">
+        <v>30.2052993617821</v>
+      </c>
+      <c r="BC37" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD37" s="39">
+        <v>34</v>
+      </c>
+      <c r="BE37" s="7">
+        <f t="shared" si="4"/>
+        <v>3.7947006382179005</v>
+      </c>
+      <c r="BG37" s="5">
+        <v>34</v>
+      </c>
+      <c r="BH37" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI37" s="57">
+        <v>34.877104993623703</v>
+      </c>
+      <c r="BJ37" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK37" s="39">
+        <v>34</v>
+      </c>
+      <c r="BL37" s="7">
+        <f t="shared" si="5"/>
+        <v>0.87710499362370342</v>
+      </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -16968,8 +22630,65 @@
         <f t="shared" si="2"/>
         <v>4.9901764811661025</v>
       </c>
+      <c r="AS38" s="5">
+        <v>35</v>
+      </c>
+      <c r="AT38" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="57">
+        <v>40.990176481166102</v>
+      </c>
+      <c r="AV38" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="39">
+        <v>36</v>
+      </c>
+      <c r="AX38" s="7">
+        <f t="shared" si="3"/>
+        <v>4.9901764811661025</v>
+      </c>
+      <c r="AZ38" s="5">
+        <v>35</v>
+      </c>
+      <c r="BA38" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB38" s="57">
+        <v>40.990176481166102</v>
+      </c>
+      <c r="BC38" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD38" s="39">
+        <v>36</v>
+      </c>
+      <c r="BE38" s="7">
+        <f t="shared" si="4"/>
+        <v>4.9901764811661025</v>
+      </c>
+      <c r="BG38" s="5">
+        <v>35</v>
+      </c>
+      <c r="BH38" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI38" s="57">
+        <v>36.328362286623999</v>
+      </c>
+      <c r="BJ38" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK38" s="39">
+        <v>36</v>
+      </c>
+      <c r="BL38" s="7">
+        <f t="shared" si="5"/>
+        <v>0.32836228662399947</v>
+      </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -17081,8 +22800,65 @@
         <f t="shared" si="2"/>
         <v>3.4041171453397965</v>
       </c>
+      <c r="AS39" s="5">
+        <v>36</v>
+      </c>
+      <c r="AT39" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="57">
+        <v>41.404117145339796</v>
+      </c>
+      <c r="AV39" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="39">
+        <v>38</v>
+      </c>
+      <c r="AX39" s="7">
+        <f t="shared" si="3"/>
+        <v>3.4041171453397965</v>
+      </c>
+      <c r="AZ39" s="5">
+        <v>36</v>
+      </c>
+      <c r="BA39" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB39" s="57">
+        <v>41.404117145339796</v>
+      </c>
+      <c r="BC39" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD39" s="39">
+        <v>38</v>
+      </c>
+      <c r="BE39" s="7">
+        <f t="shared" si="4"/>
+        <v>3.4041171453397965</v>
+      </c>
+      <c r="BG39" s="5">
+        <v>36</v>
+      </c>
+      <c r="BH39" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI39" s="57">
+        <v>41.397749803544798</v>
+      </c>
+      <c r="BJ39" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK39" s="39">
+        <v>38</v>
+      </c>
+      <c r="BL39" s="7">
+        <f t="shared" si="5"/>
+        <v>3.3977498035447979</v>
+      </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -17194,8 +22970,65 @@
         <f t="shared" si="2"/>
         <v>0.59527083940650272</v>
       </c>
+      <c r="AS40" s="5">
+        <v>37</v>
+      </c>
+      <c r="AT40" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="57">
+        <v>40.595270839406503</v>
+      </c>
+      <c r="AV40" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="39">
+        <v>40</v>
+      </c>
+      <c r="AX40" s="7">
+        <f t="shared" si="3"/>
+        <v>0.59527083940650272</v>
+      </c>
+      <c r="AZ40" s="5">
+        <v>37</v>
+      </c>
+      <c r="BA40" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB40" s="57">
+        <v>40.595270839406503</v>
+      </c>
+      <c r="BC40" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD40" s="39">
+        <v>40</v>
+      </c>
+      <c r="BE40" s="7">
+        <f t="shared" si="4"/>
+        <v>0.59527083940650272</v>
+      </c>
+      <c r="BG40" s="5">
+        <v>37</v>
+      </c>
+      <c r="BH40" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI40" s="57">
+        <v>41.634113690293297</v>
+      </c>
+      <c r="BJ40" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK40" s="39">
+        <v>40</v>
+      </c>
+      <c r="BL40" s="7">
+        <f t="shared" si="5"/>
+        <v>1.6341136902932973</v>
+      </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>38</v>
       </c>
@@ -17307,8 +23140,65 @@
         <f t="shared" si="2"/>
         <v>0.35586611832769677</v>
       </c>
+      <c r="AS41" s="5">
+        <v>38</v>
+      </c>
+      <c r="AT41" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="57">
+        <v>41.644133881672303</v>
+      </c>
+      <c r="AV41" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="39">
+        <v>42</v>
+      </c>
+      <c r="AX41" s="7">
+        <f t="shared" si="3"/>
+        <v>0.35586611832769677</v>
+      </c>
+      <c r="AZ41" s="5">
+        <v>38</v>
+      </c>
+      <c r="BA41" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB41" s="57">
+        <v>41.644133881672303</v>
+      </c>
+      <c r="BC41" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD41" s="39">
+        <v>42</v>
+      </c>
+      <c r="BE41" s="7">
+        <f t="shared" si="4"/>
+        <v>0.35586611832769677</v>
+      </c>
+      <c r="BG41" s="5">
+        <v>38</v>
+      </c>
+      <c r="BH41" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI41" s="57">
+        <v>41.531000585684602</v>
+      </c>
+      <c r="BJ41" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK41" s="39">
+        <v>42</v>
+      </c>
+      <c r="BL41" s="7">
+        <f t="shared" si="5"/>
+        <v>0.46899941431539816</v>
+      </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>39</v>
       </c>
@@ -17420,8 +23310,65 @@
         <f t="shared" si="2"/>
         <v>2.3254238430294976</v>
       </c>
+      <c r="AS42" s="5">
+        <v>39</v>
+      </c>
+      <c r="AT42" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU42" s="57">
+        <v>41.674576156970502</v>
+      </c>
+      <c r="AV42" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW42" s="39">
+        <v>44</v>
+      </c>
+      <c r="AX42" s="7">
+        <f t="shared" si="3"/>
+        <v>2.3254238430294976</v>
+      </c>
+      <c r="AZ42" s="5">
+        <v>39</v>
+      </c>
+      <c r="BA42" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB42" s="57">
+        <v>41.674576156970502</v>
+      </c>
+      <c r="BC42" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD42" s="39">
+        <v>44</v>
+      </c>
+      <c r="BE42" s="7">
+        <f t="shared" si="4"/>
+        <v>2.3254238430294976</v>
+      </c>
+      <c r="BG42" s="5">
+        <v>39</v>
+      </c>
+      <c r="BH42" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI42" s="57">
+        <v>41.673904649779601</v>
+      </c>
+      <c r="BJ42" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK42" s="39">
+        <v>44</v>
+      </c>
+      <c r="BL42" s="7">
+        <f t="shared" si="5"/>
+        <v>2.3260953502203989</v>
+      </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -17533,8 +23480,65 @@
         <f t="shared" si="2"/>
         <v>4.7159182506321997</v>
       </c>
+      <c r="AS43" s="5">
+        <v>40</v>
+      </c>
+      <c r="AT43" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU43" s="57">
+        <v>41.2840817493678</v>
+      </c>
+      <c r="AV43" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="39">
+        <v>46</v>
+      </c>
+      <c r="AX43" s="7">
+        <f t="shared" si="3"/>
+        <v>4.7159182506321997</v>
+      </c>
+      <c r="AZ43" s="5">
+        <v>40</v>
+      </c>
+      <c r="BA43" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB43" s="57">
+        <v>41.2840817493678</v>
+      </c>
+      <c r="BC43" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD43" s="39">
+        <v>46</v>
+      </c>
+      <c r="BE43" s="7">
+        <f t="shared" si="4"/>
+        <v>4.7159182506321997</v>
+      </c>
+      <c r="BG43" s="5">
+        <v>40</v>
+      </c>
+      <c r="BH43" s="57">
+        <v>0</v>
+      </c>
+      <c r="BI43" s="57">
+        <v>41.1981529316188</v>
+      </c>
+      <c r="BJ43" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK43" s="39">
+        <v>46</v>
+      </c>
+      <c r="BL43" s="7">
+        <f t="shared" si="5"/>
+        <v>4.8018470683811998</v>
+      </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>41</v>
       </c>
@@ -17646,8 +23650,65 @@
         <f t="shared" si="2"/>
         <v>7.1340812769448974</v>
       </c>
+      <c r="AS44" s="5">
+        <v>41</v>
+      </c>
+      <c r="AT44" s="57">
+        <v>0.11846390903911901</v>
+      </c>
+      <c r="AU44" s="57">
+        <v>41.317615809734697</v>
+      </c>
+      <c r="AV44" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="39">
+        <v>48</v>
+      </c>
+      <c r="AX44" s="7">
+        <f t="shared" si="3"/>
+        <v>6.6834341594761364</v>
+      </c>
+      <c r="AZ44" s="5">
+        <v>41</v>
+      </c>
+      <c r="BA44" s="57">
+        <v>0.11846390903911901</v>
+      </c>
+      <c r="BB44" s="57">
+        <v>41.317615809734697</v>
+      </c>
+      <c r="BC44" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD44" s="39">
+        <v>48</v>
+      </c>
+      <c r="BE44" s="7">
+        <f t="shared" si="4"/>
+        <v>6.6834341594761364</v>
+      </c>
+      <c r="BG44" s="5">
+        <v>41</v>
+      </c>
+      <c r="BH44" s="57">
+        <v>0.60395317254865499</v>
+      </c>
+      <c r="BI44" s="57">
+        <v>39.761522230647401</v>
+      </c>
+      <c r="BJ44" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK44" s="39">
+        <v>48</v>
+      </c>
+      <c r="BL44" s="7">
+        <f t="shared" si="5"/>
+        <v>8.2605856566437552</v>
+      </c>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -17759,8 +23820,65 @@
         <f t="shared" si="2"/>
         <v>14.540206623683098</v>
       </c>
+      <c r="AS45" s="5">
+        <v>42</v>
+      </c>
+      <c r="AT45" s="57">
+        <v>0</v>
+      </c>
+      <c r="AU45" s="57">
+        <v>35.459793376316902</v>
+      </c>
+      <c r="AV45" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="39">
+        <v>50</v>
+      </c>
+      <c r="AX45" s="7">
+        <f t="shared" si="3"/>
+        <v>14.540206623683098</v>
+      </c>
+      <c r="AZ45" s="5">
+        <v>42</v>
+      </c>
+      <c r="BA45" s="57">
+        <v>0</v>
+      </c>
+      <c r="BB45" s="57">
+        <v>35.459793376316902</v>
+      </c>
+      <c r="BC45" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD45" s="39">
+        <v>50</v>
+      </c>
+      <c r="BE45" s="7">
+        <f t="shared" si="4"/>
+        <v>14.540206623683098</v>
+      </c>
+      <c r="BG45" s="5">
+        <v>42</v>
+      </c>
+      <c r="BH45" s="57">
+        <v>2.1443283540751299</v>
+      </c>
+      <c r="BI45" s="57">
+        <v>43.508978851279501</v>
+      </c>
+      <c r="BJ45" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK45" s="39">
+        <v>50</v>
+      </c>
+      <c r="BL45" s="7">
+        <f t="shared" si="5"/>
+        <v>6.8360441516440886</v>
+      </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>43</v>
       </c>
@@ -17872,8 +23990,65 @@
         <f t="shared" si="2"/>
         <v>10.049789982906034</v>
       </c>
+      <c r="AS46" s="5">
+        <v>43</v>
+      </c>
+      <c r="AT46" s="57">
+        <v>2.08627367327114</v>
+      </c>
+      <c r="AU46" s="57">
+        <v>42.169143431992602</v>
+      </c>
+      <c r="AV46" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="39">
+        <v>52</v>
+      </c>
+      <c r="AX46" s="7">
+        <f t="shared" si="3"/>
+        <v>10.049789982906034</v>
+      </c>
+      <c r="AZ46" s="5">
+        <v>43</v>
+      </c>
+      <c r="BA46" s="57">
+        <v>2.08627367327114</v>
+      </c>
+      <c r="BB46" s="57">
+        <v>42.169143431992602</v>
+      </c>
+      <c r="BC46" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD46" s="39">
+        <v>52</v>
+      </c>
+      <c r="BE46" s="7">
+        <f t="shared" si="4"/>
+        <v>10.049789982906034</v>
+      </c>
+      <c r="BG46" s="5">
+        <v>43</v>
+      </c>
+      <c r="BH46" s="57">
+        <v>5.2077345092226501</v>
+      </c>
+      <c r="BI46" s="57">
+        <v>48.379990878738397</v>
+      </c>
+      <c r="BJ46" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK46" s="39">
+        <v>52</v>
+      </c>
+      <c r="BL46" s="7">
+        <f t="shared" si="5"/>
+        <v>6.3423154097352867</v>
+      </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>44</v>
       </c>
@@ -17985,8 +24160,65 @@
         <f t="shared" si="2"/>
         <v>8.6801873405851353</v>
       </c>
+      <c r="AS47" s="5">
+        <v>44</v>
+      </c>
+      <c r="AT47" s="57">
+        <v>8.3648758533668595</v>
+      </c>
+      <c r="AU47" s="57">
+        <v>51.681702300088602</v>
+      </c>
+      <c r="AV47" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW47" s="39">
+        <v>54</v>
+      </c>
+      <c r="AX47" s="7">
+        <f t="shared" si="3"/>
+        <v>8.6801873405851353</v>
+      </c>
+      <c r="AZ47" s="5">
+        <v>44</v>
+      </c>
+      <c r="BA47" s="57">
+        <v>8.3648758533668595</v>
+      </c>
+      <c r="BB47" s="57">
+        <v>51.681702300088602</v>
+      </c>
+      <c r="BC47" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD47" s="39">
+        <v>54</v>
+      </c>
+      <c r="BE47" s="7">
+        <f t="shared" si="4"/>
+        <v>8.6801873405851353</v>
+      </c>
+      <c r="BG47" s="5">
+        <v>44</v>
+      </c>
+      <c r="BH47" s="57">
+        <v>6.5973766299827501</v>
+      </c>
+      <c r="BI47" s="57">
+        <v>49.594119435682401</v>
+      </c>
+      <c r="BJ47" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK47" s="39">
+        <v>54</v>
+      </c>
+      <c r="BL47" s="7">
+        <f t="shared" si="5"/>
+        <v>7.9332945202402581</v>
+      </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>45</v>
       </c>
@@ -18098,8 +24330,65 @@
         <f t="shared" si="2"/>
         <v>12.398855810408456</v>
       </c>
+      <c r="AS48" s="5">
+        <v>45</v>
+      </c>
+      <c r="AT48" s="57">
+        <v>8.0718036130972397</v>
+      </c>
+      <c r="AU48" s="57">
+        <v>49.477572946698402</v>
+      </c>
+      <c r="AV48" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW48" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX48" s="7">
+        <f t="shared" si="3"/>
+        <v>10.377671619108508</v>
+      </c>
+      <c r="AZ48" s="5">
+        <v>45</v>
+      </c>
+      <c r="BA48" s="57">
+        <v>8.0718036130972397</v>
+      </c>
+      <c r="BB48" s="57">
+        <v>49.477572946698402</v>
+      </c>
+      <c r="BC48" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD48" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE48" s="7">
+        <f t="shared" si="4"/>
+        <v>10.377671619108508</v>
+      </c>
+      <c r="BG48" s="5">
+        <v>45</v>
+      </c>
+      <c r="BH48" s="57">
+        <v>5.9138121842759199</v>
+      </c>
+      <c r="BI48" s="57">
+        <v>38.057798636744998</v>
+      </c>
+      <c r="BJ48" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK48" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL48" s="7">
+        <f t="shared" si="5"/>
+        <v>18.891685057465889</v>
+      </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>46</v>
       </c>
@@ -18211,8 +24500,65 @@
         <f t="shared" si="2"/>
         <v>14.241283731070839</v>
       </c>
+      <c r="AS49" s="5">
+        <v>46</v>
+      </c>
+      <c r="AT49" s="57">
+        <v>16.2384129352873</v>
+      </c>
+      <c r="AU49" s="57">
+        <v>55.714064005228003</v>
+      </c>
+      <c r="AV49" s="38">
+        <v>2</v>
+      </c>
+      <c r="AW49" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX49" s="7">
+        <f t="shared" si="3"/>
+        <v>14.241283731070839</v>
+      </c>
+      <c r="AZ49" s="5">
+        <v>46</v>
+      </c>
+      <c r="BA49" s="57">
+        <v>16.2384129352873</v>
+      </c>
+      <c r="BB49" s="57">
+        <v>55.714064005228003</v>
+      </c>
+      <c r="BC49" s="38">
+        <v>2</v>
+      </c>
+      <c r="BD49" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE49" s="7">
+        <f t="shared" si="4"/>
+        <v>14.241283731070839</v>
+      </c>
+      <c r="BG49" s="5">
+        <v>46</v>
+      </c>
+      <c r="BH49" s="57">
+        <v>10.8249694115043</v>
+      </c>
+      <c r="BI49" s="57">
+        <v>55.3768489030493</v>
+      </c>
+      <c r="BJ49" s="38">
+        <v>2</v>
+      </c>
+      <c r="BK49" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL49" s="7">
+        <f t="shared" si="5"/>
+        <v>8.846943110680515</v>
+      </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>47</v>
       </c>
@@ -18324,8 +24670,65 @@
         <f t="shared" si="2"/>
         <v>6.1335474663181495</v>
       </c>
+      <c r="AS50" s="5">
+        <v>47</v>
+      </c>
+      <c r="AT50" s="57">
+        <v>10.133531157269999</v>
+      </c>
+      <c r="AU50" s="57">
+        <v>55.985855588526199</v>
+      </c>
+      <c r="AV50" s="38">
+        <v>4</v>
+      </c>
+      <c r="AW50" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX50" s="7">
+        <f t="shared" si="3"/>
+        <v>6.1335474663181495</v>
+      </c>
+      <c r="AZ50" s="5">
+        <v>47</v>
+      </c>
+      <c r="BA50" s="57">
+        <v>10.133531157269999</v>
+      </c>
+      <c r="BB50" s="57">
+        <v>55.985855588526199</v>
+      </c>
+      <c r="BC50" s="38">
+        <v>4</v>
+      </c>
+      <c r="BD50" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE50" s="7">
+        <f t="shared" si="4"/>
+        <v>6.1335474663181495</v>
+      </c>
+      <c r="BG50" s="5">
+        <v>47</v>
+      </c>
+      <c r="BH50" s="57">
+        <v>18.017661408671401</v>
+      </c>
+      <c r="BI50" s="57">
+        <v>55.949891699568099</v>
+      </c>
+      <c r="BJ50" s="38">
+        <v>4</v>
+      </c>
+      <c r="BK50" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL50" s="7">
+        <f t="shared" si="5"/>
+        <v>14.017750968323259</v>
+      </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>48</v>
       </c>
@@ -18437,8 +24840,65 @@
         <f t="shared" si="2"/>
         <v>4.0166465686904642</v>
       </c>
+      <c r="AS51" s="5">
+        <v>48</v>
+      </c>
+      <c r="AT51" s="57">
+        <v>10.016645931090601</v>
+      </c>
+      <c r="AU51" s="57">
+        <v>55.9977368106127</v>
+      </c>
+      <c r="AV51" s="38">
+        <v>6</v>
+      </c>
+      <c r="AW51" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX51" s="7">
+        <f t="shared" si="3"/>
+        <v>4.0166465686904642</v>
+      </c>
+      <c r="AZ51" s="5">
+        <v>48</v>
+      </c>
+      <c r="BA51" s="57">
+        <v>10.016645931090601</v>
+      </c>
+      <c r="BB51" s="57">
+        <v>55.9977368106127</v>
+      </c>
+      <c r="BC51" s="38">
+        <v>6</v>
+      </c>
+      <c r="BD51" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE51" s="7">
+        <f t="shared" si="4"/>
+        <v>4.0166465686904642</v>
+      </c>
+      <c r="BG51" s="5">
+        <v>48</v>
+      </c>
+      <c r="BH51" s="57">
+        <v>10.5551543062926</v>
+      </c>
+      <c r="BI51" s="57">
+        <v>56</v>
+      </c>
+      <c r="BJ51" s="38">
+        <v>6</v>
+      </c>
+      <c r="BK51" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL51" s="7">
+        <f t="shared" si="5"/>
+        <v>4.5551543062926001</v>
+      </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>49</v>
       </c>
@@ -18550,8 +25010,65 @@
         <f t="shared" si="2"/>
         <v>2.1771009702378796</v>
       </c>
+      <c r="AS52" s="5">
+        <v>49</v>
+      </c>
+      <c r="AT52" s="57">
+        <v>10.177096392761401</v>
+      </c>
+      <c r="AU52" s="57">
+        <v>55.995535558712099</v>
+      </c>
+      <c r="AV52" s="38">
+        <v>8</v>
+      </c>
+      <c r="AW52" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX52" s="7">
+        <f t="shared" si="3"/>
+        <v>2.1771009702378796</v>
+      </c>
+      <c r="AZ52" s="5">
+        <v>49</v>
+      </c>
+      <c r="BA52" s="57">
+        <v>10.177096392761401</v>
+      </c>
+      <c r="BB52" s="57">
+        <v>55.995535558712099</v>
+      </c>
+      <c r="BC52" s="38">
+        <v>8</v>
+      </c>
+      <c r="BD52" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE52" s="7">
+        <f t="shared" si="4"/>
+        <v>2.1771009702378796</v>
+      </c>
+      <c r="BG52" s="5">
+        <v>49</v>
+      </c>
+      <c r="BH52" s="57">
+        <v>10.856523133603099</v>
+      </c>
+      <c r="BI52" s="57">
+        <v>55.990267187237599</v>
+      </c>
+      <c r="BJ52" s="38">
+        <v>8</v>
+      </c>
+      <c r="BK52" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL52" s="7">
+        <f t="shared" si="5"/>
+        <v>2.8565397144891818</v>
+      </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>50</v>
       </c>
@@ -18663,8 +25180,65 @@
         <f t="shared" si="2"/>
         <v>3.6331093675599391E-2</v>
       </c>
+      <c r="AS53" s="5">
+        <v>50</v>
+      </c>
+      <c r="AT53" s="57">
+        <v>10.036331093675599</v>
+      </c>
+      <c r="AU53" s="57">
+        <v>56</v>
+      </c>
+      <c r="AV53" s="38">
+        <v>10</v>
+      </c>
+      <c r="AW53" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX53" s="7">
+        <f t="shared" si="3"/>
+        <v>3.6331093675599391E-2</v>
+      </c>
+      <c r="AZ53" s="5">
+        <v>50</v>
+      </c>
+      <c r="BA53" s="57">
+        <v>10.036331093675599</v>
+      </c>
+      <c r="BB53" s="57">
+        <v>56</v>
+      </c>
+      <c r="BC53" s="38">
+        <v>10</v>
+      </c>
+      <c r="BD53" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE53" s="7">
+        <f t="shared" si="4"/>
+        <v>3.6331093675599391E-2</v>
+      </c>
+      <c r="BG53" s="5">
+        <v>50</v>
+      </c>
+      <c r="BH53" s="57">
+        <v>10.0574966414777</v>
+      </c>
+      <c r="BI53" s="57">
+        <v>56</v>
+      </c>
+      <c r="BJ53" s="38">
+        <v>10</v>
+      </c>
+      <c r="BK53" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL53" s="7">
+        <f t="shared" si="5"/>
+        <v>5.7496641477699839E-2</v>
+      </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>51</v>
       </c>
@@ -18776,8 +25350,65 @@
         <f t="shared" si="2"/>
         <v>1.8564356435643994</v>
       </c>
+      <c r="AS54" s="5">
+        <v>51</v>
+      </c>
+      <c r="AT54" s="57">
+        <v>10.143564356435601</v>
+      </c>
+      <c r="AU54" s="57">
+        <v>56</v>
+      </c>
+      <c r="AV54" s="38">
+        <v>12</v>
+      </c>
+      <c r="AW54" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX54" s="7">
+        <f t="shared" si="3"/>
+        <v>1.8564356435643994</v>
+      </c>
+      <c r="AZ54" s="5">
+        <v>51</v>
+      </c>
+      <c r="BA54" s="57">
+        <v>10.143564356435601</v>
+      </c>
+      <c r="BB54" s="57">
+        <v>56</v>
+      </c>
+      <c r="BC54" s="38">
+        <v>12</v>
+      </c>
+      <c r="BD54" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE54" s="7">
+        <f t="shared" si="4"/>
+        <v>1.8564356435643994</v>
+      </c>
+      <c r="BG54" s="5">
+        <v>51</v>
+      </c>
+      <c r="BH54" s="57">
+        <v>14.8409783435447</v>
+      </c>
+      <c r="BI54" s="57">
+        <v>55.999999999999901</v>
+      </c>
+      <c r="BJ54" s="38">
+        <v>12</v>
+      </c>
+      <c r="BK54" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL54" s="7">
+        <f t="shared" si="5"/>
+        <v>2.8409783435447</v>
+      </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>52</v>
       </c>
@@ -18889,8 +25520,65 @@
         <f t="shared" si="2"/>
         <v>3.4448456937073999</v>
       </c>
+      <c r="AS55" s="5">
+        <v>52</v>
+      </c>
+      <c r="AT55" s="57">
+        <v>10.5551543062926</v>
+      </c>
+      <c r="AU55" s="57">
+        <v>56</v>
+      </c>
+      <c r="AV55" s="38">
+        <v>14</v>
+      </c>
+      <c r="AW55" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX55" s="7">
+        <f t="shared" si="3"/>
+        <v>3.4448456937073999</v>
+      </c>
+      <c r="AZ55" s="5">
+        <v>52</v>
+      </c>
+      <c r="BA55" s="57">
+        <v>10.5551543062926</v>
+      </c>
+      <c r="BB55" s="57">
+        <v>56</v>
+      </c>
+      <c r="BC55" s="38">
+        <v>14</v>
+      </c>
+      <c r="BD55" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE55" s="7">
+        <f t="shared" si="4"/>
+        <v>3.4448456937073999</v>
+      </c>
+      <c r="BG55" s="5">
+        <v>52</v>
+      </c>
+      <c r="BH55" s="57">
+        <v>15.609516107779401</v>
+      </c>
+      <c r="BI55" s="57">
+        <v>55.999999999999901</v>
+      </c>
+      <c r="BJ55" s="38">
+        <v>14</v>
+      </c>
+      <c r="BK55" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL55" s="7">
+        <f t="shared" si="5"/>
+        <v>1.6095161077794007</v>
+      </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>53</v>
       </c>
@@ -19002,8 +25690,65 @@
         <f t="shared" si="2"/>
         <v>6.0881058031597988</v>
       </c>
+      <c r="AS56" s="5">
+        <v>53</v>
+      </c>
+      <c r="AT56" s="57">
+        <v>22.088105803159799</v>
+      </c>
+      <c r="AU56" s="57">
+        <v>56</v>
+      </c>
+      <c r="AV56" s="38">
+        <v>16</v>
+      </c>
+      <c r="AW56" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX56" s="7">
+        <f t="shared" si="3"/>
+        <v>6.0881058031597988</v>
+      </c>
+      <c r="AZ56" s="5">
+        <v>53</v>
+      </c>
+      <c r="BA56" s="57">
+        <v>22.088105803159799</v>
+      </c>
+      <c r="BB56" s="57">
+        <v>56</v>
+      </c>
+      <c r="BC56" s="38">
+        <v>16</v>
+      </c>
+      <c r="BD56" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE56" s="7">
+        <f t="shared" si="4"/>
+        <v>6.0881058031597988</v>
+      </c>
+      <c r="BG56" s="5">
+        <v>53</v>
+      </c>
+      <c r="BH56" s="57">
+        <v>19.659021656455199</v>
+      </c>
+      <c r="BI56" s="57">
+        <v>55.999999999999901</v>
+      </c>
+      <c r="BJ56" s="38">
+        <v>16</v>
+      </c>
+      <c r="BK56" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL56" s="7">
+        <f t="shared" si="5"/>
+        <v>3.6590216564551987</v>
+      </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>54</v>
       </c>
@@ -19115,8 +25860,65 @@
         <f t="shared" si="2"/>
         <v>5.4329804362951002</v>
       </c>
+      <c r="AS57" s="5">
+        <v>54</v>
+      </c>
+      <c r="AT57" s="57">
+        <v>23.4329804362951</v>
+      </c>
+      <c r="AU57" s="57">
+        <v>56</v>
+      </c>
+      <c r="AV57" s="38">
+        <v>18</v>
+      </c>
+      <c r="AW57" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX57" s="7">
+        <f t="shared" si="3"/>
+        <v>5.4329804362951002</v>
+      </c>
+      <c r="AZ57" s="5">
+        <v>54</v>
+      </c>
+      <c r="BA57" s="57">
+        <v>23.4329804362951</v>
+      </c>
+      <c r="BB57" s="57">
+        <v>56</v>
+      </c>
+      <c r="BC57" s="38">
+        <v>18</v>
+      </c>
+      <c r="BD57" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE57" s="7">
+        <f t="shared" si="4"/>
+        <v>5.4329804362951002</v>
+      </c>
+      <c r="BG57" s="5">
+        <v>54</v>
+      </c>
+      <c r="BH57" s="57">
+        <v>21.588979870759999</v>
+      </c>
+      <c r="BI57" s="57">
+        <v>56</v>
+      </c>
+      <c r="BJ57" s="38">
+        <v>18</v>
+      </c>
+      <c r="BK57" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL57" s="7">
+        <f t="shared" si="5"/>
+        <v>3.5889798707599994</v>
+      </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>55</v>
       </c>
@@ -19228,8 +26030,65 @@
         <f t="shared" si="2"/>
         <v>4.3197253388104997</v>
       </c>
+      <c r="AS58" s="5">
+        <v>55</v>
+      </c>
+      <c r="AT58" s="57">
+        <v>24.3197253388105</v>
+      </c>
+      <c r="AU58" s="57">
+        <v>56</v>
+      </c>
+      <c r="AV58" s="38">
+        <v>20</v>
+      </c>
+      <c r="AW58" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX58" s="7">
+        <f t="shared" si="3"/>
+        <v>4.3197253388104997</v>
+      </c>
+      <c r="AZ58" s="5">
+        <v>55</v>
+      </c>
+      <c r="BA58" s="57">
+        <v>24.3197253388105</v>
+      </c>
+      <c r="BB58" s="57">
+        <v>56</v>
+      </c>
+      <c r="BC58" s="38">
+        <v>20</v>
+      </c>
+      <c r="BD58" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE58" s="7">
+        <f t="shared" si="4"/>
+        <v>4.3197253388104997</v>
+      </c>
+      <c r="BG58" s="5">
+        <v>55</v>
+      </c>
+      <c r="BH58" s="57">
+        <v>23.4329804362951</v>
+      </c>
+      <c r="BI58" s="57">
+        <v>56</v>
+      </c>
+      <c r="BJ58" s="38">
+        <v>20</v>
+      </c>
+      <c r="BK58" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL58" s="7">
+        <f t="shared" si="5"/>
+        <v>3.4329804362951002</v>
+      </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>56</v>
       </c>
@@ -19341,8 +26200,65 @@
         <f t="shared" si="2"/>
         <v>2.4542915168427015</v>
       </c>
+      <c r="AS59" s="5">
+        <v>56</v>
+      </c>
+      <c r="AT59" s="57">
+        <v>24.454291516842702</v>
+      </c>
+      <c r="AU59" s="57">
+        <v>56</v>
+      </c>
+      <c r="AV59" s="38">
+        <v>22</v>
+      </c>
+      <c r="AW59" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX59" s="7">
+        <f t="shared" si="3"/>
+        <v>2.4542915168427015</v>
+      </c>
+      <c r="AZ59" s="5">
+        <v>56</v>
+      </c>
+      <c r="BA59" s="57">
+        <v>24.454291516842702</v>
+      </c>
+      <c r="BB59" s="57">
+        <v>56</v>
+      </c>
+      <c r="BC59" s="38">
+        <v>22</v>
+      </c>
+      <c r="BD59" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE59" s="7">
+        <f t="shared" si="4"/>
+        <v>2.4542915168427015</v>
+      </c>
+      <c r="BG59" s="5">
+        <v>56</v>
+      </c>
+      <c r="BH59" s="57">
+        <v>24.138786354977299</v>
+      </c>
+      <c r="BI59" s="57">
+        <v>55.993630685133503</v>
+      </c>
+      <c r="BJ59" s="38">
+        <v>22</v>
+      </c>
+      <c r="BK59" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL59" s="7">
+        <f t="shared" si="5"/>
+        <v>2.13879583887966</v>
+      </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>57</v>
       </c>
@@ -19454,8 +26370,65 @@
         <f t="shared" si="2"/>
         <v>0.44250335852219891</v>
       </c>
+      <c r="AS60" s="5">
+        <v>57</v>
+      </c>
+      <c r="AT60" s="57">
+        <v>24.442503358522199</v>
+      </c>
+      <c r="AU60" s="57">
+        <v>56</v>
+      </c>
+      <c r="AV60" s="38">
+        <v>24</v>
+      </c>
+      <c r="AW60" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX60" s="7">
+        <f t="shared" si="3"/>
+        <v>0.44250335852219891</v>
+      </c>
+      <c r="AZ60" s="5">
+        <v>57</v>
+      </c>
+      <c r="BA60" s="57">
+        <v>24.442503358522199</v>
+      </c>
+      <c r="BB60" s="57">
+        <v>56</v>
+      </c>
+      <c r="BC60" s="38">
+        <v>24</v>
+      </c>
+      <c r="BD60" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE60" s="7">
+        <f t="shared" si="4"/>
+        <v>0.44250335852219891</v>
+      </c>
+      <c r="BG60" s="5">
+        <v>57</v>
+      </c>
+      <c r="BH60" s="57">
+        <v>24.475681222672499</v>
+      </c>
+      <c r="BI60" s="57">
+        <v>55.998540308094697</v>
+      </c>
+      <c r="BJ60" s="38">
+        <v>24</v>
+      </c>
+      <c r="BK60" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL60" s="7">
+        <f t="shared" si="5"/>
+        <v>0.47568346229784142</v>
+      </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>58</v>
       </c>
@@ -19567,8 +26540,65 @@
         <f t="shared" si="2"/>
         <v>1.6435643564357001</v>
       </c>
+      <c r="AS61" s="5">
+        <v>58</v>
+      </c>
+      <c r="AT61" s="57">
+        <v>24.3564356435643</v>
+      </c>
+      <c r="AU61" s="57">
+        <v>56</v>
+      </c>
+      <c r="AV61" s="38">
+        <v>26</v>
+      </c>
+      <c r="AW61" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX61" s="7">
+        <f t="shared" si="3"/>
+        <v>1.6435643564357001</v>
+      </c>
+      <c r="AZ61" s="5">
+        <v>58</v>
+      </c>
+      <c r="BA61" s="57">
+        <v>24.3564356435643</v>
+      </c>
+      <c r="BB61" s="57">
+        <v>56</v>
+      </c>
+      <c r="BC61" s="38">
+        <v>26</v>
+      </c>
+      <c r="BD61" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE61" s="7">
+        <f t="shared" si="4"/>
+        <v>1.6435643564357001</v>
+      </c>
+      <c r="BG61" s="5">
+        <v>58</v>
+      </c>
+      <c r="BH61" s="57">
+        <v>23.9375657889812</v>
+      </c>
+      <c r="BI61" s="57">
+        <v>55.992095270719197</v>
+      </c>
+      <c r="BJ61" s="38">
+        <v>26</v>
+      </c>
+      <c r="BK61" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL61" s="7">
+        <f t="shared" si="5"/>
+        <v>2.0624493592633359</v>
+      </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>59</v>
       </c>
@@ -19680,8 +26710,65 @@
         <f t="shared" si="2"/>
         <v>3.6142699158298015</v>
       </c>
+      <c r="AS62" s="5">
+        <v>59</v>
+      </c>
+      <c r="AT62" s="57">
+        <v>24.385730084170198</v>
+      </c>
+      <c r="AU62" s="57">
+        <v>56</v>
+      </c>
+      <c r="AV62" s="38">
+        <v>28</v>
+      </c>
+      <c r="AW62" s="39">
+        <v>56</v>
+      </c>
+      <c r="AX62" s="7">
+        <f t="shared" si="3"/>
+        <v>3.6142699158298015</v>
+      </c>
+      <c r="AZ62" s="5">
+        <v>59</v>
+      </c>
+      <c r="BA62" s="57">
+        <v>24.385730084170198</v>
+      </c>
+      <c r="BB62" s="57">
+        <v>56</v>
+      </c>
+      <c r="BC62" s="38">
+        <v>28</v>
+      </c>
+      <c r="BD62" s="39">
+        <v>56</v>
+      </c>
+      <c r="BE62" s="7">
+        <f t="shared" si="4"/>
+        <v>3.6142699158298015</v>
+      </c>
+      <c r="BG62" s="5">
+        <v>59</v>
+      </c>
+      <c r="BH62" s="57">
+        <v>21.003654973524402</v>
+      </c>
+      <c r="BI62" s="57">
+        <v>55.984318764132297</v>
+      </c>
+      <c r="BJ62" s="38">
+        <v>28</v>
+      </c>
+      <c r="BK62" s="39">
+        <v>56</v>
+      </c>
+      <c r="BL62" s="7">
+        <f t="shared" si="5"/>
+        <v>6.9963625999978145</v>
+      </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:64" x14ac:dyDescent="0.3">
       <c r="E64" t="s">
         <v>6</v>
       </c>
@@ -19727,8 +26814,32 @@
         <f>AVERAGE(AQ4:AQ62)</f>
         <v>5.2825040693469418</v>
       </c>
+      <c r="AS64" s="1"/>
+      <c r="AW64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX64" s="1">
+        <f>AVERAGE(AX4:AX62)</f>
+        <v>5.2094341578142318</v>
+      </c>
+      <c r="AZ64" s="1"/>
+      <c r="BD64" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE64" s="1">
+        <f>AVERAGE(BE4:BE62)</f>
+        <v>5.2094341578142318</v>
+      </c>
+      <c r="BG64" s="1"/>
+      <c r="BK64" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL64" s="1">
+        <f>AVERAGE(BL4:BL62)</f>
+        <v>5.8615313566175082</v>
+      </c>
     </row>
-    <row r="65" spans="5:43" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:64" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>7</v>
       </c>
@@ -19771,8 +26882,29 @@
         <f>MAX(AQ4:AQ62)</f>
         <v>22.894895372825101</v>
       </c>
+      <c r="AW65" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX65" s="56">
+        <f>MAX(AX4:AX62)</f>
+        <v>22.894895372825101</v>
+      </c>
+      <c r="BD65" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE65" s="56">
+        <f>MAX(BE4:BE62)</f>
+        <v>22.894895372825101</v>
+      </c>
+      <c r="BK65" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL65" s="56">
+        <f>MAX(BL4:BL62)</f>
+        <v>23.856466822083998</v>
+      </c>
     </row>
-    <row r="66" spans="5:43" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:64" x14ac:dyDescent="0.3">
       <c r="E66" t="s">
         <v>16</v>
       </c>
@@ -19815,8 +26947,29 @@
         <f>MIN(AQ4:AQ62)</f>
         <v>3.6331093675599391E-2</v>
       </c>
+      <c r="AW66" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX66" s="58">
+        <f>MIN(AX4:AX62)</f>
+        <v>3.6331093675599391E-2</v>
+      </c>
+      <c r="BD66" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE66" s="58">
+        <f>MIN(BE4:BE62)</f>
+        <v>3.6331093675599391E-2</v>
+      </c>
+      <c r="BK66" t="s">
+        <v>16</v>
+      </c>
+      <c r="BL66" s="58">
+        <f>MIN(BL4:BL62)</f>
+        <v>5.7496641477699839E-2</v>
+      </c>
     </row>
-    <row r="67" spans="5:43" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:64" x14ac:dyDescent="0.3">
       <c r="E67" t="s">
         <v>9</v>
       </c>
@@ -19862,8 +27015,32 @@
         <f>_xlfn.STDEV.P(AQ4:AQ62)</f>
         <v>5.1276310909025851</v>
       </c>
+      <c r="AS67" s="4"/>
+      <c r="AW67" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX67" s="1">
+        <f>_xlfn.STDEV.P(AX4:AX62)</f>
+        <v>5.0602964870516383</v>
+      </c>
+      <c r="AZ67" s="4"/>
+      <c r="BD67" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE67" s="1">
+        <f>_xlfn.STDEV.P(BE4:BE62)</f>
+        <v>5.0602964870516383</v>
+      </c>
+      <c r="BG67" s="4"/>
+      <c r="BK67" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL67" s="1">
+        <f>_xlfn.STDEV.P(BL4:BL62)</f>
+        <v>5.9926195547972627</v>
+      </c>
     </row>
-    <row r="68" spans="5:43" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:64" x14ac:dyDescent="0.3">
       <c r="E68" t="s">
         <v>8</v>
       </c>
@@ -19906,9 +27083,30 @@
         <f>_xlfn.VAR.P(AQ4:AQ62)</f>
         <v>26.292600604390831</v>
       </c>
+      <c r="AW68" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX68" s="1">
+        <f>_xlfn.VAR.P(AX4:AX62)</f>
+        <v>25.606600536867152</v>
+      </c>
+      <c r="BD68" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE68" s="1">
+        <f>_xlfn.VAR.P(BE4:BE62)</f>
+        <v>25.606600536867152</v>
+      </c>
+      <c r="BK68" t="s">
+        <v>8</v>
+      </c>
+      <c r="BL68" s="1">
+        <f>_xlfn.VAR.P(BL4:BL62)</f>
+        <v>35.911489128538541</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AM2:AN2"/>
@@ -19921,8 +27119,14 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="R2:S2"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="BH2:BI2"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="V4">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>"abs($V$4-$AD$4)&gt;1"</formula>
